--- a/SCE_skewness_lt.xlsx
+++ b/SCE_skewness_lt.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -151,13 +151,13 @@
         <v>0.78268885612487793</v>
       </c>
       <c r="C7" s="2">
-        <v>0.45395910739898682</v>
+        <v>0.45411121845245361</v>
       </c>
       <c r="D7" s="2">
         <v>0.2218918651342392</v>
       </c>
       <c r="E7" s="2">
-        <v>-0.0031216302886605263</v>
+        <v>-0.0039430833421647549</v>
       </c>
     </row>
     <row r="8">
@@ -168,13 +168,13 @@
         <v>0.15686279535293579</v>
       </c>
       <c r="C8" s="2">
-        <v>-0.079612061381340027</v>
+        <v>-0.082015626132488251</v>
       </c>
       <c r="D8" s="2">
         <v>0.17378032207489014</v>
       </c>
       <c r="E8" s="2">
-        <v>-0.039557952433824539</v>
+        <v>-0.04067089781165123</v>
       </c>
     </row>
     <row r="9">
@@ -185,13 +185,13 @@
         <v>0.18897454440593719</v>
       </c>
       <c r="C9" s="2">
-        <v>-0.005212878342717886</v>
+        <v>-0.0048155141994357109</v>
       </c>
       <c r="D9" s="2">
         <v>0.088357903063297272</v>
       </c>
       <c r="E9" s="2">
-        <v>-0.17533068358898163</v>
+        <v>-0.17637014389038086</v>
       </c>
     </row>
     <row r="10">
@@ -202,13 +202,13 @@
         <v>-0.74811232089996338</v>
       </c>
       <c r="C10" s="2">
-        <v>-0.97820401191711426</v>
+        <v>-0.9796377420425415</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.00062036514282226562</v>
+        <v>-0.00062036514282226563</v>
       </c>
       <c r="E10" s="2">
-        <v>-0.28239107131958008</v>
+        <v>-0.28362932801246643</v>
       </c>
     </row>
     <row r="11">
@@ -219,13 +219,13 @@
         <v>0.72904545068740845</v>
       </c>
       <c r="C11" s="2">
-        <v>0.59346169233322144</v>
+        <v>0.59264224767684937</v>
       </c>
       <c r="D11" s="2">
         <v>-0.034015536308288574</v>
       </c>
       <c r="E11" s="2">
-        <v>-0.30543389916419983</v>
+        <v>-0.30642709136009216</v>
       </c>
     </row>
     <row r="12">
@@ -236,13 +236,13 @@
         <v>-0.066777423024177551</v>
       </c>
       <c r="C12" s="2">
-        <v>-0.22173956036567688</v>
+        <v>-0.22430996596813202</v>
       </c>
       <c r="D12" s="2">
         <v>-0.14139465987682343</v>
       </c>
       <c r="E12" s="2">
-        <v>-0.40903759002685547</v>
+        <v>-0.41026148200035095</v>
       </c>
     </row>
     <row r="13">
@@ -253,13 +253,13 @@
         <v>-0.42417660355567932</v>
       </c>
       <c r="C13" s="2">
-        <v>-0.98996710777282715</v>
+        <v>-0.99056565761566162</v>
       </c>
       <c r="D13" s="2">
         <v>-0.26401475071907043</v>
       </c>
       <c r="E13" s="2">
-        <v>-0.53025370836257935</v>
+        <v>-0.53132051229476929</v>
       </c>
     </row>
     <row r="14">
@@ -270,13 +270,13 @@
         <v>-0.62346822023391724</v>
       </c>
       <c r="C14" s="2">
-        <v>-1.0318138599395752</v>
+        <v>-1.0344434976577759</v>
       </c>
       <c r="D14" s="2">
-        <v>-0.38697963953018188</v>
+        <v>-0.38697963953018189</v>
       </c>
       <c r="E14" s="2">
-        <v>-0.65815043449401855</v>
+        <v>-0.65946799516677857</v>
       </c>
     </row>
     <row r="15">
@@ -287,13 +287,13 @@
         <v>-0.30117690563201904</v>
       </c>
       <c r="C15" s="2">
-        <v>-0.48977652192115784</v>
+        <v>-0.48880934715270996</v>
       </c>
       <c r="D15" s="2">
         <v>-0.42463892698287964</v>
       </c>
       <c r="E15" s="2">
-        <v>-0.68706268072128296</v>
+        <v>-0.68845677375793457</v>
       </c>
     </row>
     <row r="16">
@@ -304,13 +304,13 @@
         <v>-0.18372327089309692</v>
       </c>
       <c r="C16" s="2">
-        <v>-0.47847399115562439</v>
+        <v>-0.4803982675075531</v>
       </c>
       <c r="D16" s="2">
         <v>-0.53174930810928345</v>
       </c>
       <c r="E16" s="2">
-        <v>-0.79545760154724121</v>
+        <v>-0.79699873924255371</v>
       </c>
     </row>
     <row r="17">
@@ -321,13 +321,13 @@
         <v>-0.94671797752380371</v>
       </c>
       <c r="C17" s="2">
-        <v>-1.1705571413040161</v>
+        <v>-1.1715470552444458</v>
       </c>
       <c r="D17" s="2">
         <v>-0.53817242383956909</v>
       </c>
       <c r="E17" s="2">
-        <v>-0.8278203010559082</v>
+        <v>-0.82891011238098145</v>
       </c>
     </row>
     <row r="18">
@@ -338,13 +338,13 @@
         <v>-0.9177095890045166</v>
       </c>
       <c r="C18" s="2">
-        <v>-1.1562834978103638</v>
+        <v>-1.1581425666809082</v>
       </c>
       <c r="D18" s="2">
         <v>-0.4437943696975708</v>
       </c>
       <c r="E18" s="2">
-        <v>-0.68382906913757324</v>
+        <v>-0.68486869335174561</v>
       </c>
     </row>
     <row r="19">
@@ -355,13 +355,13 @@
         <v>-1.0870456695556641</v>
       </c>
       <c r="C19" s="2">
-        <v>-1.2384140491485596</v>
+        <v>-1.2405366897583008</v>
       </c>
       <c r="D19" s="2">
         <v>-0.37045866250991821</v>
       </c>
       <c r="E19" s="2">
-        <v>-0.60676640272140503</v>
+        <v>-0.60749185085296631</v>
       </c>
     </row>
     <row r="20">
@@ -369,16 +369,16 @@
         <v>41821</v>
       </c>
       <c r="B20" s="2">
-        <v>-0.23494830727577209</v>
+        <v>-0.2349483072757721</v>
       </c>
       <c r="C20" s="2">
-        <v>-0.38209280371665955</v>
+        <v>-0.38423556089401245</v>
       </c>
       <c r="D20" s="2">
         <v>-0.3531804084777832</v>
       </c>
       <c r="E20" s="2">
-        <v>-0.59220558404922485</v>
+        <v>-0.59338849782943726</v>
       </c>
     </row>
     <row r="21">
@@ -389,13 +389,13 @@
         <v>-0.12458525598049164</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.51300382614135742</v>
+        <v>-0.5115121603012085</v>
       </c>
       <c r="D21" s="2">
         <v>-0.40877041220664978</v>
       </c>
       <c r="E21" s="2">
-        <v>-0.63787353038787842</v>
+        <v>-0.63915491104125977</v>
       </c>
     </row>
     <row r="22">
@@ -406,13 +406,13 @@
         <v>0.4252258837223053</v>
       </c>
       <c r="C22" s="2">
-        <v>0.30595391988754272</v>
+        <v>0.30580675601959229</v>
       </c>
       <c r="D22" s="2">
         <v>-0.26891836524009705</v>
       </c>
       <c r="E22" s="2">
-        <v>-0.48369085788726807</v>
+        <v>-0.48476284742355347</v>
       </c>
     </row>
     <row r="23">
@@ -423,13 +423,13 @@
         <v>0.036553103476762772</v>
       </c>
       <c r="C23" s="2">
-        <v>-0.33824983239173889</v>
+        <v>-0.33805152773857117</v>
       </c>
       <c r="D23" s="2">
         <v>-0.2529655396938324</v>
       </c>
       <c r="E23" s="2">
-        <v>-0.46866241097450256</v>
+        <v>-0.46996226906776428</v>
       </c>
     </row>
     <row r="24">
@@ -440,13 +440,13 @@
         <v>-0.14567272365093231</v>
       </c>
       <c r="C24" s="2">
-        <v>-0.35872927308082581</v>
+        <v>-0.36187922954559326</v>
       </c>
       <c r="D24" s="2">
         <v>-0.16137813031673431</v>
       </c>
       <c r="E24" s="2">
-        <v>-0.39070400595664978</v>
+        <v>-0.39170125126838684</v>
       </c>
     </row>
     <row r="25">
@@ -457,13 +457,13 @@
         <v>-0.68403315544128418</v>
       </c>
       <c r="C25" s="2">
-        <v>-0.88948518037796021</v>
+        <v>-0.8922964334487915</v>
       </c>
       <c r="D25" s="2">
         <v>-0.17549227178096771</v>
       </c>
       <c r="E25" s="2">
-        <v>-0.42331483960151672</v>
+        <v>-0.42417088150978088</v>
       </c>
     </row>
     <row r="26">
@@ -474,13 +474,13 @@
         <v>0.31195035576820374</v>
       </c>
       <c r="C26" s="2">
-        <v>0.21708671748638153</v>
+        <v>0.21798169612884522</v>
       </c>
       <c r="D26" s="2">
         <v>-0.14565975964069366</v>
       </c>
       <c r="E26" s="2">
-        <v>-0.38268369436264038</v>
+        <v>-0.3837043046951294</v>
       </c>
     </row>
     <row r="27">
@@ -491,13 +491,13 @@
         <v>-0.77413409948348999</v>
       </c>
       <c r="C27" s="2">
-        <v>-1.0210274457931519</v>
+        <v>-1.0249372720718384</v>
       </c>
       <c r="D27" s="2">
         <v>-0.20474058389663696</v>
       </c>
       <c r="E27" s="2">
-        <v>-0.47107967734336853</v>
+        <v>-0.47230449318885803</v>
       </c>
     </row>
     <row r="28">
@@ -508,13 +508,13 @@
         <v>-0.26275897026062012</v>
       </c>
       <c r="C28" s="2">
-        <v>-0.53678828477859497</v>
+        <v>-0.53618741035461426</v>
       </c>
       <c r="D28" s="2">
         <v>-0.19938744604587555</v>
       </c>
       <c r="E28" s="2">
-        <v>-0.4443163275718689</v>
+        <v>-0.44585797190666199</v>
       </c>
     </row>
     <row r="29">
@@ -525,13 +525,13 @@
         <v>-0.36197552084922791</v>
       </c>
       <c r="C29" s="2">
-        <v>-0.67559033632278442</v>
+        <v>-0.67646223306655884</v>
       </c>
       <c r="D29" s="2">
         <v>-0.30479460954666138</v>
       </c>
       <c r="E29" s="2">
-        <v>-0.56132543087005615</v>
+        <v>-0.56234461069107056</v>
       </c>
     </row>
     <row r="30">
@@ -542,13 +542,13 @@
         <v>0.1439073234796524</v>
       </c>
       <c r="C30" s="2">
-        <v>-0.14732356369495392</v>
+        <v>-0.14731304347515106</v>
       </c>
       <c r="D30" s="2">
         <v>-0.1995169073343277</v>
       </c>
       <c r="E30" s="2">
-        <v>-0.46784108877182007</v>
+        <v>-0.46838206052780151</v>
       </c>
     </row>
     <row r="31">
@@ -559,13 +559,13 @@
         <v>-0.10650155693292618</v>
       </c>
       <c r="C31" s="2">
-        <v>-0.48960986733436584</v>
+        <v>-0.49159508943557739</v>
       </c>
       <c r="D31" s="2">
         <v>-0.22797907888889313</v>
       </c>
       <c r="E31" s="2">
-        <v>-0.50705701112747192</v>
+        <v>-0.50750148296356201</v>
       </c>
     </row>
     <row r="32">
@@ -576,13 +576,13 @@
         <v>0.084731347858905792</v>
       </c>
       <c r="C32" s="2">
-        <v>-0.097379758954048157</v>
+        <v>-0.10003285855054855</v>
       </c>
       <c r="D32" s="2">
         <v>-0.18691584467887878</v>
       </c>
       <c r="E32" s="2">
-        <v>-0.46210384368896484</v>
+        <v>-0.46223706007003784</v>
       </c>
     </row>
     <row r="33">
@@ -590,16 +590,16 @@
         <v>42217</v>
       </c>
       <c r="B33" s="2">
-        <v>-1.0943372249603271</v>
+        <v>-1.0943372249603272</v>
       </c>
       <c r="C33" s="2">
-        <v>-1.4118111133575439</v>
+        <v>-1.4102587699890137</v>
       </c>
       <c r="D33" s="2">
         <v>-0.094962827861309052</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.34686827659606934</v>
+        <v>-0.34723606705665588</v>
       </c>
     </row>
     <row r="34">
@@ -610,13 +610,13 @@
         <v>0.26346617937088013</v>
       </c>
       <c r="C34" s="2">
-        <v>-0.04812607541680336</v>
+        <v>-0.046633541584014893</v>
       </c>
       <c r="D34" s="2">
         <v>-0.057181075215339661</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.29437553882598877</v>
+        <v>-0.29442504048347473</v>
       </c>
     </row>
     <row r="35">
@@ -627,13 +627,13 @@
         <v>0.055790852755308151</v>
       </c>
       <c r="C35" s="2">
-        <v>-0.13585670292377472</v>
+        <v>-0.13409297168254852</v>
       </c>
       <c r="D35" s="2">
         <v>-0.0012686821864917874</v>
       </c>
       <c r="E35" s="2">
-        <v>-0.23595304787158966</v>
+        <v>-0.2365124374628067</v>
       </c>
     </row>
     <row r="36">
@@ -641,16 +641,16 @@
         <v>42309</v>
       </c>
       <c r="B36" s="2">
-        <v>-0.40456500649452209</v>
+        <v>-0.4045650064945221</v>
       </c>
       <c r="C36" s="2">
-        <v>-0.61644881963729858</v>
+        <v>-0.61755752563476563</v>
       </c>
       <c r="D36" s="2">
         <v>-0.031225046142935753</v>
       </c>
       <c r="E36" s="2">
-        <v>-0.21211105585098267</v>
+        <v>-0.21277479827404022</v>
       </c>
     </row>
     <row r="37">
@@ -661,13 +661,13 @@
         <v>0.56481814384460449</v>
       </c>
       <c r="C37" s="2">
-        <v>0.50033175945281982</v>
+        <v>0.49882140755653381</v>
       </c>
       <c r="D37" s="2">
         <v>-0.050016406923532486</v>
       </c>
       <c r="E37" s="2">
-        <v>-0.25116464495658875</v>
+        <v>-0.25136446952819824</v>
       </c>
     </row>
     <row r="38">
@@ -678,13 +678,13 @@
         <v>-0.02193974144756794</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.20315581560134888</v>
+        <v>-0.20116287469863892</v>
       </c>
       <c r="D38" s="2">
         <v>0.17442938685417175</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.03307492658495903</v>
+        <v>-0.033777955919504166</v>
       </c>
     </row>
     <row r="39">
@@ -695,13 +695,13 @@
         <v>0.64711886644363403</v>
       </c>
       <c r="C39" s="2">
-        <v>0.37847894430160522</v>
+        <v>0.37390026450157166</v>
       </c>
       <c r="D39" s="2">
         <v>0.10004933923482895</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.10452964156866074</v>
+        <v>-0.10530836135149002</v>
       </c>
     </row>
     <row r="40">
@@ -712,13 +712,13 @@
         <v>-0.37610882520675659</v>
       </c>
       <c r="C40" s="2">
-        <v>-0.2750319242477417</v>
+        <v>-0.2779562771320343</v>
       </c>
       <c r="D40" s="2">
         <v>0.14019784331321716</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.09514288604259491</v>
+        <v>-0.096774682402610779</v>
       </c>
     </row>
     <row r="41">
@@ -729,13 +729,13 @@
         <v>-0.084390901029109955</v>
       </c>
       <c r="C41" s="2">
-        <v>-0.44886207580566406</v>
+        <v>-0.44733980298042297</v>
       </c>
       <c r="D41" s="2">
         <v>0.22562626004219055</v>
       </c>
       <c r="E41" s="2">
-        <v>-0.0096789179369807243</v>
+        <v>-0.011072350665926933</v>
       </c>
     </row>
     <row r="42">
@@ -746,13 +746,13 @@
         <v>0.9256749153137207</v>
       </c>
       <c r="C42" s="2">
-        <v>0.55099636316299438</v>
+        <v>0.54801970720291138</v>
       </c>
       <c r="D42" s="2">
         <v>0.17017181217670441</v>
       </c>
       <c r="E42" s="2">
-        <v>-0.085364706814289093</v>
+        <v>-0.086676746606826782</v>
       </c>
     </row>
     <row r="43">
@@ -763,13 +763,13 @@
         <v>-0.40595424175262451</v>
       </c>
       <c r="C43" s="2">
-        <v>-0.69121849536895752</v>
+        <v>-0.6904071569442749</v>
       </c>
       <c r="D43" s="2">
         <v>0.1400931179523468</v>
       </c>
       <c r="E43" s="2">
-        <v>-0.13497933745384216</v>
+        <v>-0.1368110179901123</v>
       </c>
     </row>
     <row r="44">
@@ -780,13 +780,13 @@
         <v>0.4171273410320282</v>
       </c>
       <c r="C44" s="2">
-        <v>-0.051375932991504669</v>
+        <v>-0.05728984996676445</v>
       </c>
       <c r="D44" s="2">
         <v>0.015988118946552277</v>
       </c>
       <c r="E44" s="2">
-        <v>-0.24394190311431885</v>
+        <v>-0.24549315869808197</v>
       </c>
     </row>
     <row r="45">
@@ -797,13 +797,13 @@
         <v>0.3642907440662384</v>
       </c>
       <c r="C45" s="2">
-        <v>0.1527269184589386</v>
+        <v>0.15376342833042145</v>
       </c>
       <c r="D45" s="2">
         <v>0.053154107183218002</v>
       </c>
       <c r="E45" s="2">
-        <v>-0.25212278962135315</v>
+        <v>-0.2535090446472168</v>
       </c>
     </row>
     <row r="46">
@@ -814,13 +814,13 @@
         <v>0.065728098154067993</v>
       </c>
       <c r="C46" s="2">
-        <v>-0.18084035813808441</v>
+        <v>-0.18161818385124207</v>
       </c>
       <c r="D46" s="2">
         <v>0.0014584200689569116</v>
       </c>
       <c r="E46" s="2">
-        <v>-0.27723410725593567</v>
+        <v>-0.27883917093276978</v>
       </c>
     </row>
     <row r="47">
@@ -831,13 +831,13 @@
         <v>-0.29264798760414124</v>
       </c>
       <c r="C47" s="2">
-        <v>-0.64968746900558472</v>
+        <v>-0.65237128734588623</v>
       </c>
       <c r="D47" s="2">
         <v>-0.19763895869255066</v>
       </c>
       <c r="E47" s="2">
-        <v>-0.46529042720794678</v>
+        <v>-0.46652725338935852</v>
       </c>
     </row>
     <row r="48">
@@ -845,16 +845,16 @@
         <v>42675</v>
       </c>
       <c r="B48" s="2">
-        <v>-0.46982607245445251</v>
+        <v>-0.46982607245445252</v>
       </c>
       <c r="C48" s="2">
-        <v>-0.60218411684036255</v>
+        <v>-0.60423898696899414</v>
       </c>
       <c r="D48" s="2">
         <v>-0.20262032747268677</v>
       </c>
       <c r="E48" s="2">
-        <v>-0.46039706468582153</v>
+        <v>-0.46163177490234375</v>
       </c>
     </row>
     <row r="49">
@@ -865,13 +865,13 @@
         <v>-0.041614916175603867</v>
       </c>
       <c r="C49" s="2">
-        <v>-0.34865984320640564</v>
+        <v>-0.35009923577308655</v>
       </c>
       <c r="D49" s="2">
         <v>-0.29348841309547424</v>
       </c>
       <c r="E49" s="2">
-        <v>-0.54279404878616333</v>
+        <v>-0.5438917875289917</v>
       </c>
     </row>
     <row r="50">
@@ -882,13 +882,13 @@
         <v>-0.549652099609375</v>
       </c>
       <c r="C50" s="2">
-        <v>-0.67486411333084106</v>
+        <v>-0.67531108856201172</v>
       </c>
       <c r="D50" s="2">
         <v>-0.29693049192428589</v>
       </c>
       <c r="E50" s="2">
-        <v>-0.53634852170944214</v>
+        <v>-0.53788870573043823</v>
       </c>
     </row>
     <row r="51">
@@ -899,13 +899,13 @@
         <v>-0.86620146036148071</v>
       </c>
       <c r="C51" s="2">
-        <v>-1.1415104866027832</v>
+        <v>-1.141173005104065</v>
       </c>
       <c r="D51" s="2">
         <v>-0.33952206373214722</v>
       </c>
       <c r="E51" s="2">
-        <v>-0.5862128734588623</v>
+        <v>-0.58780992031097412</v>
       </c>
     </row>
     <row r="52">
@@ -916,13 +916,13 @@
         <v>-0.45078656077384949</v>
       </c>
       <c r="C52" s="2">
-        <v>-0.64717811346054077</v>
+        <v>-0.64634782075881958</v>
       </c>
       <c r="D52" s="2">
         <v>-0.29222095012664795</v>
       </c>
       <c r="E52" s="2">
-        <v>-0.52280920743942261</v>
+        <v>-0.52413386106491089</v>
       </c>
     </row>
     <row r="53">
@@ -933,13 +933,13 @@
         <v>-0.40068542957305908</v>
       </c>
       <c r="C53" s="2">
-        <v>-0.79294866323471069</v>
+        <v>-0.797629714012146</v>
       </c>
       <c r="D53" s="2">
         <v>-0.19391623139381409</v>
       </c>
       <c r="E53" s="2">
-        <v>-0.4503084123134613</v>
+        <v>-0.45198434591293335</v>
       </c>
     </row>
     <row r="54">
@@ -950,13 +950,13 @@
         <v>0.33331206440925598</v>
       </c>
       <c r="C54" s="2">
-        <v>0.21073634922504425</v>
+        <v>0.2077910304069519</v>
       </c>
       <c r="D54" s="2">
         <v>-0.29071322083473206</v>
       </c>
       <c r="E54" s="2">
-        <v>-0.54655390977859497</v>
+        <v>-0.5480535626411438</v>
       </c>
     </row>
     <row r="55">
@@ -967,13 +967,13 @@
         <v>-0.31759613752365112</v>
       </c>
       <c r="C55" s="2">
-        <v>-0.6296195387840271</v>
+        <v>-0.63090908527374268</v>
       </c>
       <c r="D55" s="2">
         <v>-0.22996386885643005</v>
       </c>
       <c r="E55" s="2">
-        <v>-0.49307745695114136</v>
+        <v>-0.49472931027412415</v>
       </c>
     </row>
     <row r="56">
@@ -984,13 +984,13 @@
         <v>0.13306212425231934</v>
       </c>
       <c r="C56" s="2">
-        <v>-0.079054221510887146</v>
+        <v>-0.07928670197725296</v>
       </c>
       <c r="D56" s="2">
         <v>-0.1662299782037735</v>
       </c>
       <c r="E56" s="2">
-        <v>-0.44337520003318787</v>
+        <v>-0.44504347443580627</v>
       </c>
     </row>
     <row r="57">
@@ -1001,13 +1001,13 @@
         <v>0.41491639614105225</v>
       </c>
       <c r="C57" s="2">
-        <v>0.050322804600000381</v>
+        <v>0.045106459408998489</v>
       </c>
       <c r="D57" s="2">
         <v>-0.13520701229572296</v>
       </c>
       <c r="E57" s="2">
-        <v>-0.43017315864562988</v>
+        <v>-0.43260234594345093</v>
       </c>
     </row>
     <row r="58">
@@ -1018,13 +1018,13 @@
         <v>-0.91278797388076782</v>
       </c>
       <c r="C58" s="2">
-        <v>-1.2148693799972534</v>
+        <v>-1.2147223949432373</v>
       </c>
       <c r="D58" s="2">
         <v>-0.09638301283121109</v>
       </c>
       <c r="E58" s="2">
-        <v>-0.38200610876083374</v>
+        <v>-0.38380137085914612</v>
       </c>
     </row>
     <row r="59">
@@ -1035,13 +1035,13 @@
         <v>-0.0029078770894557238</v>
       </c>
       <c r="C59" s="2">
-        <v>-0.19357594847679138</v>
+        <v>-0.1953926831483841</v>
       </c>
       <c r="D59" s="2">
-        <v>-0.23010538518428802</v>
+        <v>-0.23010538518428803</v>
       </c>
       <c r="E59" s="2">
-        <v>-0.54100126028060913</v>
+        <v>-0.54251384735107422</v>
       </c>
     </row>
     <row r="60">
@@ -1052,13 +1052,13 @@
         <v>-0.29259639978408813</v>
       </c>
       <c r="C60" s="2">
-        <v>-0.69419002532958984</v>
+        <v>-0.69400036334991455</v>
       </c>
       <c r="D60" s="2">
         <v>-0.25478518009185791</v>
       </c>
       <c r="E60" s="2">
-        <v>-0.56259834766387939</v>
+        <v>-0.5640869140625</v>
       </c>
     </row>
     <row r="61">
@@ -1069,13 +1069,13 @@
         <v>-0.17157986760139465</v>
       </c>
       <c r="C61" s="2">
-        <v>-0.52835988998413086</v>
+        <v>-0.5343775749206543</v>
       </c>
       <c r="D61" s="2">
         <v>-0.33349129557609558</v>
       </c>
       <c r="E61" s="2">
-        <v>-0.6412510871887207</v>
+        <v>-0.64284449815750122</v>
       </c>
     </row>
     <row r="62">
@@ -1086,13 +1086,13 @@
         <v>-0.051269475370645523</v>
       </c>
       <c r="C62" s="2">
-        <v>-0.35944509506225586</v>
+        <v>-0.35842105746269226</v>
       </c>
       <c r="D62" s="2">
         <v>-0.34285661578178406</v>
       </c>
       <c r="E62" s="2">
-        <v>-0.63530367612838745</v>
+        <v>-0.63647621870040894</v>
       </c>
     </row>
     <row r="63">
@@ -1103,13 +1103,13 @@
         <v>-0.87018924951553345</v>
       </c>
       <c r="C63" s="2">
-        <v>-1.2202199697494507</v>
+        <v>-1.2206209897994995</v>
       </c>
       <c r="D63" s="2">
         <v>-0.29188269376754761</v>
       </c>
       <c r="E63" s="2">
-        <v>-0.58314692974090576</v>
+        <v>-0.58438587188720703</v>
       </c>
     </row>
     <row r="64">
@@ -1120,13 +1120,13 @@
         <v>-0.53971433639526367</v>
       </c>
       <c r="C64" s="2">
-        <v>-0.82399344444274902</v>
+        <v>-0.82506716251373291</v>
       </c>
       <c r="D64" s="2">
         <v>-0.30785155296325684</v>
       </c>
       <c r="E64" s="2">
-        <v>-0.6042940616607666</v>
+        <v>-0.60533356666564941</v>
       </c>
     </row>
     <row r="65">
@@ -1137,13 +1137,13 @@
         <v>-0.57529282569885254</v>
       </c>
       <c r="C65" s="2">
-        <v>-0.78692865371704102</v>
+        <v>-0.78810495138168335</v>
       </c>
       <c r="D65" s="2">
         <v>-0.15254397690296173</v>
       </c>
       <c r="E65" s="2">
-        <v>-0.42415735125541687</v>
+        <v>-0.42521753907203674</v>
       </c>
     </row>
     <row r="66">
@@ -1154,13 +1154,13 @@
         <v>0.33062833547592163</v>
       </c>
       <c r="C66" s="2">
-        <v>0.10384939610958099</v>
+        <v>0.10242099314928055</v>
       </c>
       <c r="D66" s="2">
         <v>-0.16346608102321625</v>
       </c>
       <c r="E66" s="2">
-        <v>-0.41924026608467102</v>
+        <v>-0.419770747423172</v>
       </c>
     </row>
     <row r="67">
@@ -1171,13 +1171,13 @@
         <v>-0.45402267575263977</v>
       </c>
       <c r="C67" s="2">
-        <v>-0.74545848369598389</v>
+        <v>-0.74590921401977539</v>
       </c>
       <c r="D67" s="2">
         <v>-0.29474163055419922</v>
       </c>
       <c r="E67" s="2">
-        <v>-0.55892211198806763</v>
+        <v>-0.55986809730529785</v>
       </c>
     </row>
     <row r="68">
@@ -1188,13 +1188,13 @@
         <v>-0.14662759006023407</v>
       </c>
       <c r="C68" s="2">
-        <v>-0.38390055298805237</v>
+        <v>-0.38392198085784912</v>
       </c>
       <c r="D68" s="2">
         <v>-0.093412399291992188</v>
       </c>
       <c r="E68" s="2">
-        <v>-0.34840649366378784</v>
+        <v>-0.34941181540489197</v>
       </c>
     </row>
     <row r="69">
@@ -1205,13 +1205,13 @@
         <v>1.1051719188690186</v>
       </c>
       <c r="C69" s="2">
-        <v>0.92704057693481445</v>
+        <v>0.9270440936088562</v>
       </c>
       <c r="D69" s="2">
         <v>-0.12076326459646225</v>
       </c>
       <c r="E69" s="2">
-        <v>-0.38116747140884399</v>
+        <v>-0.38255667686462402</v>
       </c>
     </row>
     <row r="70">
@@ -1222,13 +1222,13 @@
         <v>-0.26987883448600769</v>
       </c>
       <c r="C70" s="2">
-        <v>-0.48410624265670776</v>
+        <v>-0.48535647988319397</v>
       </c>
       <c r="D70" s="2">
         <v>-0.17930825054645538</v>
       </c>
       <c r="E70" s="2">
-        <v>-0.43588915467262268</v>
+        <v>-0.43739303946495056</v>
       </c>
     </row>
     <row r="71">
@@ -1236,16 +1236,16 @@
         <v>43374</v>
       </c>
       <c r="B71" s="2">
-        <v>-1.2327494621276855</v>
+        <v>-1.2327494621276856</v>
       </c>
       <c r="C71" s="2">
-        <v>-1.6165817975997925</v>
+        <v>-1.6192973852157593</v>
       </c>
       <c r="D71" s="2">
         <v>-0.27727213501930237</v>
       </c>
       <c r="E71" s="2">
-        <v>-0.53019654750823975</v>
+        <v>-0.53159809112548828</v>
       </c>
     </row>
     <row r="72">
@@ -1256,13 +1256,13 @@
         <v>0.94177389144897461</v>
       </c>
       <c r="C72" s="2">
-        <v>0.67442071437835693</v>
+        <v>0.67348581552505493</v>
       </c>
       <c r="D72" s="2">
         <v>-0.33878284692764282</v>
       </c>
       <c r="E72" s="2">
-        <v>-0.58760714530944824</v>
+        <v>-0.5890965461730957</v>
       </c>
     </row>
     <row r="73">
@@ -1273,13 +1273,13 @@
         <v>-0.78587216138839722</v>
       </c>
       <c r="C73" s="2">
-        <v>-1.1188421249389648</v>
+        <v>-1.1233710050582886</v>
       </c>
       <c r="D73" s="2">
         <v>-0.29063433408737183</v>
       </c>
       <c r="E73" s="2">
-        <v>-0.5334511399269104</v>
+        <v>-0.53512650728225708</v>
       </c>
     </row>
     <row r="74">
@@ -1290,13 +1290,13 @@
         <v>-1.1021976470947266</v>
       </c>
       <c r="C74" s="2">
-        <v>-1.2794239521026611</v>
+        <v>-1.2816321849822998</v>
       </c>
       <c r="D74" s="2">
         <v>-0.41044247150421143</v>
       </c>
       <c r="E74" s="2">
-        <v>-0.65347999334335327</v>
+        <v>-0.65533232688903809</v>
       </c>
     </row>
     <row r="75">
@@ -1307,13 +1307,13 @@
         <v>-0.55104660987854004</v>
       </c>
       <c r="C75" s="2">
-        <v>-0.74491703510284424</v>
+        <v>-0.74542462825775146</v>
       </c>
       <c r="D75" s="2">
         <v>-0.36674642562866211</v>
       </c>
       <c r="E75" s="2">
-        <v>-0.61237496137619019</v>
+        <v>-0.61385345458984375</v>
       </c>
     </row>
     <row r="76">
@@ -1324,13 +1324,13 @@
         <v>-1.0076190233230591</v>
       </c>
       <c r="C76" s="2">
-        <v>-1.2621538639068604</v>
+        <v>-1.2633953094482422</v>
       </c>
       <c r="D76" s="2">
         <v>-0.17389242351055145</v>
       </c>
       <c r="E76" s="2">
-        <v>-0.40394943952560425</v>
+        <v>-0.40512192249298096</v>
       </c>
     </row>
     <row r="77">
@@ -1341,13 +1341,13 @@
         <v>0.28670898079872131</v>
       </c>
       <c r="C77" s="2">
-        <v>0.10350367426872253</v>
+        <v>0.10180839896202087</v>
       </c>
       <c r="D77" s="2">
         <v>-0.21892324090003967</v>
       </c>
       <c r="E77" s="2">
-        <v>-0.44465616345405579</v>
+        <v>-0.44541710615158081</v>
       </c>
     </row>
     <row r="78">
@@ -1358,13 +1358,13 @@
         <v>0.026898570358753204</v>
       </c>
       <c r="C78" s="2">
-        <v>-0.15321914851665497</v>
+        <v>-0.15480825304985046</v>
       </c>
       <c r="D78" s="2">
         <v>-0.10211180150508881</v>
       </c>
       <c r="E78" s="2">
-        <v>-0.31152030825614929</v>
+        <v>-0.31227710843086243</v>
       </c>
     </row>
     <row r="79">
@@ -1375,13 +1375,13 @@
         <v>0.12338563054800034</v>
       </c>
       <c r="C79" s="2">
-        <v>-0.11416109651327133</v>
+        <v>-0.11204638332128525</v>
       </c>
       <c r="D79" s="2">
         <v>-0.033451300114393234</v>
       </c>
       <c r="E79" s="2">
-        <v>-0.25337889790534973</v>
+        <v>-0.2540205717086792</v>
       </c>
     </row>
     <row r="80">
@@ -1392,13 +1392,13 @@
         <v>0.50293654203414917</v>
       </c>
       <c r="C80" s="2">
-        <v>0.25924777984619141</v>
+        <v>0.25928622484207153</v>
       </c>
       <c r="D80" s="2">
-        <v>-0.011834267526865005</v>
+        <v>-0.011834267526865006</v>
       </c>
       <c r="E80" s="2">
-        <v>-0.25867190957069397</v>
+        <v>-0.25983867049217224</v>
       </c>
     </row>
     <row r="81">
@@ -1409,13 +1409,13 @@
         <v>0.53649652004241943</v>
       </c>
       <c r="C81" s="2">
-        <v>0.30806022882461548</v>
+        <v>0.31082922220230103</v>
       </c>
       <c r="D81" s="2">
         <v>0.067942298948764801</v>
       </c>
       <c r="E81" s="2">
-        <v>-0.18438352644443512</v>
+        <v>-0.18542198836803436</v>
       </c>
     </row>
     <row r="82">
@@ -1426,13 +1426,13 @@
         <v>0.26543080806732178</v>
       </c>
       <c r="C82" s="2">
-        <v>0.079380586743354797</v>
+        <v>0.074888959527015686</v>
       </c>
       <c r="D82" s="2">
         <v>0.079213529825210571</v>
       </c>
       <c r="E82" s="2">
-        <v>-0.17611178755760193</v>
+        <v>-0.17664328217506409</v>
       </c>
     </row>
     <row r="83">
@@ -1443,13 +1443,13 @@
         <v>-0.48425310850143433</v>
       </c>
       <c r="C83" s="2">
-        <v>-0.75615125894546509</v>
+        <v>-0.75732326507568359</v>
       </c>
       <c r="D83" s="2">
         <v>-0.035879045724868774</v>
       </c>
       <c r="E83" s="2">
-        <v>-0.30322647094726562</v>
+        <v>-0.30353614687919617</v>
       </c>
     </row>
     <row r="84">
@@ -1460,13 +1460,13 @@
         <v>-0.35649332404136658</v>
       </c>
       <c r="C84" s="2">
-        <v>-0.79255414009094238</v>
+        <v>-0.79778760671615601</v>
       </c>
       <c r="D84" s="2">
         <v>0.021520733833312988</v>
       </c>
       <c r="E84" s="2">
-        <v>-0.23314999043941498</v>
+        <v>-0.23418326675891876</v>
       </c>
     </row>
     <row r="85">
@@ -1477,13 +1477,13 @@
         <v>-0.28962990641593933</v>
       </c>
       <c r="C85" s="2">
-        <v>-0.59355837106704712</v>
+        <v>-0.59364515542984009</v>
       </c>
       <c r="D85" s="2">
         <v>-0.077597707509994507</v>
       </c>
       <c r="E85" s="2">
-        <v>-0.33695092797279358</v>
+        <v>-0.33803069591522217</v>
       </c>
     </row>
     <row r="86">
@@ -1494,13 +1494,13 @@
         <v>0.38815003633499146</v>
       </c>
       <c r="C86" s="2">
-        <v>0.17794936895370483</v>
+        <v>0.18081676959991455</v>
       </c>
       <c r="D86" s="2">
         <v>-0.16843967139720917</v>
       </c>
       <c r="E86" s="2">
-        <v>-0.41663444042205811</v>
+        <v>-0.41814804077148438</v>
       </c>
     </row>
     <row r="87">
@@ -1511,13 +1511,13 @@
         <v>-1.0089346170425415</v>
       </c>
       <c r="C87" s="2">
-        <v>-1.2972514629364014</v>
+        <v>-1.2968441247940064</v>
       </c>
       <c r="D87" s="2">
         <v>-0.27148890495300293</v>
       </c>
       <c r="E87" s="2">
-        <v>-0.51217019557952881</v>
+        <v>-0.51336413621902466</v>
       </c>
     </row>
     <row r="88">
@@ -1528,13 +1528,13 @@
         <v>0.6399836540222168</v>
       </c>
       <c r="C88" s="2">
-        <v>0.51652729511260986</v>
+        <v>0.51212954521179199</v>
       </c>
       <c r="D88" s="2">
         <v>-0.28811508417129517</v>
       </c>
       <c r="E88" s="2">
-        <v>-0.52175039052963257</v>
+        <v>-0.5227239727973938</v>
       </c>
     </row>
     <row r="89">
@@ -1545,13 +1545,13 @@
         <v>-0.38912945985794067</v>
       </c>
       <c r="C89" s="2">
-        <v>-0.67496061325073242</v>
+        <v>-0.67534047365188599</v>
       </c>
       <c r="D89" s="2">
         <v>-0.29760932922363281</v>
       </c>
       <c r="E89" s="2">
-        <v>-0.51104450225830078</v>
+        <v>-0.51144242286682129</v>
       </c>
     </row>
     <row r="90">
@@ -1562,13 +1562,13 @@
         <v>-0.28108114004135132</v>
       </c>
       <c r="C90" s="2">
-        <v>-0.40909141302108765</v>
+        <v>-0.41022691130638123</v>
       </c>
       <c r="D90" s="2">
         <v>-0.17618143558502197</v>
       </c>
       <c r="E90" s="2">
-        <v>-0.38965150713920593</v>
+        <v>-0.38984981179237366</v>
       </c>
     </row>
     <row r="91">
@@ -1579,13 +1579,13 @@
         <v>-0.66201239824295044</v>
       </c>
       <c r="C91" s="2">
-        <v>-0.78044098615646362</v>
+        <v>-0.78205579519271851</v>
       </c>
       <c r="D91" s="2">
         <v>-0.27070972323417664</v>
       </c>
       <c r="E91" s="2">
-        <v>-0.47833043336868286</v>
+        <v>-0.47887319326400757</v>
       </c>
     </row>
     <row r="92">
@@ -1596,13 +1596,13 @@
         <v>-0.63388866186141968</v>
       </c>
       <c r="C92" s="2">
-        <v>-0.84237295389175415</v>
+        <v>-0.84156191349029541</v>
       </c>
       <c r="D92" s="2">
         <v>-0.19565790891647339</v>
       </c>
       <c r="E92" s="2">
-        <v>-0.4021938145160675</v>
+        <v>-0.40319919586181641</v>
       </c>
     </row>
     <row r="93">
@@ -1613,13 +1613,13 @@
         <v>-0.44194155931472778</v>
       </c>
       <c r="C93" s="2">
-        <v>-0.69620156288146973</v>
+        <v>-0.69625359773635864</v>
       </c>
       <c r="D93" s="2">
         <v>-0.30421113967895508</v>
       </c>
       <c r="E93" s="2">
-        <v>-0.51328754425048828</v>
+        <v>-0.51376605033874512</v>
       </c>
     </row>
     <row r="94">
@@ -1630,13 +1630,13 @@
         <v>0.80322116613388062</v>
       </c>
       <c r="C94" s="2">
-        <v>0.49897864460945129</v>
+        <v>0.50068813562393189</v>
       </c>
       <c r="D94" s="2">
         <v>-0.21648773550987244</v>
       </c>
       <c r="E94" s="2">
-        <v>-0.4072936475276947</v>
+        <v>-0.40792924165725708</v>
       </c>
     </row>
     <row r="95">
@@ -1647,13 +1647,13 @@
         <v>-0.46260461211204529</v>
       </c>
       <c r="C95" s="2">
-        <v>-0.62016081809997559</v>
+        <v>-0.62039363384246826</v>
       </c>
       <c r="D95" s="2">
         <v>-0.15596693754196167</v>
       </c>
       <c r="E95" s="2">
-        <v>-0.37013307213783264</v>
+        <v>-0.37090092897415161</v>
       </c>
     </row>
     <row r="96">
@@ -1664,13 +1664,13 @@
         <v>-0.33346819877624512</v>
       </c>
       <c r="C96" s="2">
-        <v>-0.61202186346054077</v>
+        <v>-0.61577814817428589</v>
       </c>
       <c r="D96" s="2">
         <v>-0.12752220034599304</v>
       </c>
       <c r="E96" s="2">
-        <v>-0.3468514084815979</v>
+        <v>-0.34747639298439026</v>
       </c>
     </row>
     <row r="97">
@@ -1681,13 +1681,13 @@
         <v>-0.33699530363082886</v>
       </c>
       <c r="C97" s="2">
-        <v>-0.48331648111343384</v>
+        <v>-0.48297202587127686</v>
       </c>
       <c r="D97" s="2">
         <v>-0.055713094770908356</v>
       </c>
       <c r="E97" s="2">
-        <v>-0.28963664174079895</v>
+        <v>-0.29047080874443054</v>
       </c>
     </row>
     <row r="98">
@@ -1698,13 +1698,13 @@
         <v>0.40038111805915833</v>
       </c>
       <c r="C98" s="2">
-        <v>0.27898454666137695</v>
+        <v>0.27719065546989441</v>
       </c>
       <c r="D98" s="2">
         <v>-0.074422493577003479</v>
       </c>
       <c r="E98" s="2">
-        <v>-0.32180449366569519</v>
+        <v>-0.32297998666763306</v>
       </c>
     </row>
     <row r="99">
@@ -1715,13 +1715,13 @@
         <v>0.26360598206520081</v>
       </c>
       <c r="C99" s="2">
-        <v>-0.074646271765232086</v>
+        <v>-0.076972059905529022</v>
       </c>
       <c r="D99" s="2">
-        <v>-0.15668345987796783</v>
+        <v>-0.15668345987796784</v>
       </c>
       <c r="E99" s="2">
-        <v>-0.39674755930900574</v>
+        <v>-0.39810800552368164</v>
       </c>
     </row>
     <row r="100">
@@ -1729,16 +1729,16 @@
         <v>44256</v>
       </c>
       <c r="B100" s="2">
-        <v>-0.40600967407226562</v>
+        <v>-0.40600967407226563</v>
       </c>
       <c r="C100" s="2">
-        <v>-0.57090604305267334</v>
+        <v>-0.5712348222732544</v>
       </c>
       <c r="D100" s="2">
         <v>-0.18423593044281006</v>
       </c>
       <c r="E100" s="2">
-        <v>-0.44979757070541382</v>
+        <v>-0.45079109072685242</v>
       </c>
     </row>
     <row r="101">
@@ -1749,13 +1749,13 @@
         <v>0.01239322405308485</v>
       </c>
       <c r="C101" s="2">
-        <v>-0.32743984460830688</v>
+        <v>-0.32851186394691467</v>
       </c>
       <c r="D101" s="2">
         <v>-0.1804722398519516</v>
       </c>
       <c r="E101" s="2">
-        <v>-0.42631736397743225</v>
+        <v>-0.42711982131004333</v>
       </c>
     </row>
     <row r="102">
@@ -1766,13 +1766,13 @@
         <v>-0.61032617092132568</v>
       </c>
       <c r="C102" s="2">
-        <v>-0.98571240901947021</v>
+        <v>-0.98883605003356934</v>
       </c>
       <c r="D102" s="2">
         <v>-0.15176080167293549</v>
       </c>
       <c r="E102" s="2">
-        <v>-0.41987225413322449</v>
+        <v>-0.42072269320487976</v>
       </c>
     </row>
     <row r="103">
@@ -1783,13 +1783,13 @@
         <v>0.062872469425201416</v>
       </c>
       <c r="C103" s="2">
-        <v>-0.17550893127918243</v>
+        <v>-0.17546418309211731</v>
       </c>
       <c r="D103" s="2">
         <v>-0.28409120440483093</v>
       </c>
       <c r="E103" s="2">
-        <v>-0.56479102373123169</v>
+        <v>-0.56556057929992676</v>
       </c>
     </row>
     <row r="104">
@@ -1800,13 +1800,13 @@
         <v>-0.71057683229446411</v>
       </c>
       <c r="C104" s="2">
-        <v>-1.0976109504699707</v>
+        <v>-1.0945411920547485</v>
       </c>
       <c r="D104" s="2">
         <v>-0.34727656841278076</v>
       </c>
       <c r="E104" s="2">
-        <v>-0.60334575176239014</v>
+        <v>-0.60396683216094971</v>
       </c>
     </row>
     <row r="105">
@@ -1817,13 +1817,13 @@
         <v>-0.29959499835968018</v>
       </c>
       <c r="C105" s="2">
-        <v>-0.40069994330406189</v>
+        <v>-0.40273690223693848</v>
       </c>
       <c r="D105" s="2">
         <v>-0.35890316963195801</v>
       </c>
       <c r="E105" s="2">
-        <v>-0.63268005847930908</v>
+        <v>-0.63341832160949707</v>
       </c>
     </row>
     <row r="106">
@@ -1834,13 +1834,13 @@
         <v>-0.078592367470264435</v>
       </c>
       <c r="C106" s="2">
-        <v>-0.42531046271324158</v>
+        <v>-0.42539781332015991</v>
       </c>
       <c r="D106" s="2">
         <v>-0.40842324495315552</v>
       </c>
       <c r="E106" s="2">
-        <v>-0.65513473749160767</v>
+        <v>-0.6559186577796936</v>
       </c>
     </row>
     <row r="107">
@@ -1851,13 +1851,13 @@
         <v>-0.79059237241744995</v>
       </c>
       <c r="C107" s="2">
-        <v>-1.0252845287322998</v>
+        <v>-1.0263501405715942</v>
       </c>
       <c r="D107" s="2">
         <v>-0.4242800772190094</v>
       </c>
       <c r="E107" s="2">
-        <v>-0.64901548624038696</v>
+        <v>-0.64923065900802612</v>
       </c>
     </row>
     <row r="108">
@@ -1868,13 +1868,13 @@
         <v>-0.30506247282028198</v>
       </c>
       <c r="C108" s="2">
-        <v>-0.42163878679275513</v>
+        <v>-0.42262831330299378</v>
       </c>
       <c r="D108" s="2">
         <v>-0.45394784212112427</v>
       </c>
       <c r="E108" s="2">
-        <v>-0.66993939876556396</v>
+        <v>-0.67029041051864624</v>
       </c>
     </row>
     <row r="109">
@@ -1885,13 +1885,13 @@
         <v>-0.51064908504486084</v>
       </c>
       <c r="C109" s="2">
-        <v>-0.8349144458770752</v>
+        <v>-0.83629828691482544</v>
       </c>
       <c r="D109" s="2">
         <v>-0.40927863121032715</v>
       </c>
       <c r="E109" s="2">
-        <v>-0.5990639328956604</v>
+        <v>-0.59988903999328613</v>
       </c>
     </row>
     <row r="110">
@@ -1902,13 +1902,13 @@
         <v>-0.4332873523235321</v>
       </c>
       <c r="C110" s="2">
-        <v>-0.52953219413757324</v>
+        <v>-0.53101480007171631</v>
       </c>
       <c r="D110" s="2">
         <v>-0.38601383566856384</v>
       </c>
       <c r="E110" s="2">
-        <v>-0.5806577205657959</v>
+        <v>-0.58132421970367432</v>
       </c>
     </row>
     <row r="111">
@@ -1919,13 +1919,13 @@
         <v>-0.75303781032562256</v>
       </c>
       <c r="C111" s="2">
-        <v>-0.93063908815383911</v>
+        <v>-0.92864453792572021</v>
       </c>
       <c r="D111" s="2">
         <v>-0.37001535296440125</v>
       </c>
       <c r="E111" s="2">
-        <v>-0.54430079460144043</v>
+        <v>-0.54515862464904785</v>
       </c>
     </row>
     <row r="112">
@@ -1933,16 +1933,16 @@
         <v>44621</v>
       </c>
       <c r="B112" s="2">
-        <v>-0.20413732528686523</v>
+        <v>-0.20413732528686524</v>
       </c>
       <c r="C112" s="2">
-        <v>-0.36382433772087097</v>
+        <v>-0.36500173807144165</v>
       </c>
       <c r="D112" s="2">
         <v>-0.31648710370063782</v>
       </c>
       <c r="E112" s="2">
-        <v>-0.48176512122154236</v>
+        <v>-0.4825587272644043</v>
       </c>
     </row>
     <row r="113">
@@ -1953,13 +1953,13 @@
         <v>-0.3085540235042572</v>
       </c>
       <c r="C113" s="2">
-        <v>-0.4597318172454834</v>
+        <v>-0.46092858910560608</v>
       </c>
       <c r="D113" s="2">
         <v>-0.29432645440101624</v>
       </c>
       <c r="E113" s="2">
-        <v>-0.46400406956672668</v>
+        <v>-0.46483650803565979</v>
       </c>
     </row>
     <row r="114">
@@ -1970,13 +1970,13 @@
         <v>-0.090211838483810425</v>
       </c>
       <c r="C114" s="2">
-        <v>-0.23504363000392914</v>
+        <v>-0.23565395176410675</v>
       </c>
       <c r="D114" s="2">
         <v>-0.25587639212608337</v>
       </c>
       <c r="E114" s="2">
-        <v>-0.39840489625930786</v>
+        <v>-0.39908048510551453</v>
       </c>
     </row>
     <row r="115">
@@ -1987,13 +1987,13 @@
         <v>0.065394096076488495</v>
       </c>
       <c r="C115" s="2">
-        <v>-0.098098486661911011</v>
+        <v>-0.099907480180263519</v>
       </c>
       <c r="D115" s="2">
         <v>-0.25393092632293701</v>
       </c>
       <c r="E115" s="2">
-        <v>-0.40410503745079041</v>
+        <v>-0.40496453642845154</v>
       </c>
     </row>
     <row r="116">
@@ -2004,13 +2004,13 @@
         <v>-0.30883818864822388</v>
       </c>
       <c r="C116" s="2">
-        <v>-0.46246325969696045</v>
+        <v>-0.46295091509819031</v>
       </c>
       <c r="D116" s="2">
         <v>-0.24248038232326508</v>
       </c>
       <c r="E116" s="2">
-        <v>-0.37892547249794006</v>
+        <v>-0.3802911639213562</v>
       </c>
     </row>
     <row r="117">
@@ -2021,13 +2021,13 @@
         <v>-0.10561659932136536</v>
       </c>
       <c r="C117" s="2">
-        <v>-0.26178935170173645</v>
+        <v>-0.26312834024429321</v>
       </c>
       <c r="D117" s="2">
         <v>-0.27141019701957703</v>
       </c>
       <c r="E117" s="2">
-        <v>-0.41373011469841003</v>
+        <v>-0.41489493846893311</v>
       </c>
     </row>
     <row r="118">
@@ -2038,13 +2038,13 @@
         <v>-0.16459836065769196</v>
       </c>
       <c r="C118" s="2">
-        <v>-0.24452178180217743</v>
+        <v>-0.24449405074119568</v>
       </c>
       <c r="D118" s="2">
         <v>-0.26587346196174622</v>
       </c>
       <c r="E118" s="2">
-        <v>-0.4071497917175293</v>
+        <v>-0.40823248028755188</v>
       </c>
     </row>
     <row r="119">
@@ -2055,13 +2055,13 @@
         <v>-0.41577836871147156</v>
       </c>
       <c r="C119" s="2">
-        <v>-0.58083367347717285</v>
+        <v>-0.58397114276885986</v>
       </c>
       <c r="D119" s="2">
         <v>-0.31620165705680847</v>
       </c>
       <c r="E119" s="2">
-        <v>-0.45315849781036377</v>
+        <v>-0.45436936616897583</v>
       </c>
     </row>
     <row r="120">
@@ -2072,13 +2072,13 @@
         <v>-0.64998281002044678</v>
       </c>
       <c r="C120" s="2">
-        <v>-0.70402282476425171</v>
+        <v>-0.70658427476882935</v>
       </c>
       <c r="D120" s="2">
         <v>-0.40068012475967407</v>
       </c>
       <c r="E120" s="2">
-        <v>-0.53406858444213867</v>
+        <v>-0.53492778539657593</v>
       </c>
     </row>
     <row r="121">
@@ -2089,13 +2089,13 @@
         <v>-0.4645056426525116</v>
       </c>
       <c r="C121" s="2">
-        <v>-0.67706632614135742</v>
+        <v>-0.67643558979034424</v>
       </c>
       <c r="D121" s="2">
         <v>-0.41660252213478088</v>
       </c>
       <c r="E121" s="2">
-        <v>-0.55838215351104736</v>
+        <v>-0.55923008918762207</v>
       </c>
     </row>
     <row r="122">
@@ -2106,13 +2106,13 @@
         <v>-0.25872346758842468</v>
       </c>
       <c r="C122" s="2">
-        <v>-0.40050870180130005</v>
+        <v>-0.4009665846824646</v>
       </c>
       <c r="D122" s="2">
         <v>-0.43111085891723633</v>
       </c>
       <c r="E122" s="2">
-        <v>-0.57526630163192749</v>
+        <v>-0.5762365460395813</v>
       </c>
     </row>
     <row r="123">
@@ -2123,13 +2123,13 @@
         <v>-0.54316568374633789</v>
       </c>
       <c r="C123" s="2">
-        <v>-0.64912211894989014</v>
+        <v>-0.65088587999343872</v>
       </c>
       <c r="D123" s="2">
         <v>-0.41099384427070618</v>
       </c>
       <c r="E123" s="2">
-        <v>-0.57217937707901001</v>
+        <v>-0.573516845703125</v>
       </c>
     </row>
     <row r="124">
@@ -2140,13 +2140,13 @@
         <v>-0.69491207599639893</v>
       </c>
       <c r="C124" s="2">
-        <v>-0.82628929615020752</v>
+        <v>-0.82493311166763306</v>
       </c>
       <c r="D124" s="2">
         <v>-0.39766961336135864</v>
       </c>
       <c r="E124" s="2">
-        <v>-0.56813251972198486</v>
+        <v>-0.5693327784538269</v>
       </c>
     </row>
     <row r="125">
@@ -2157,13 +2157,13 @@
         <v>-0.45213967561721802</v>
       </c>
       <c r="C125" s="2">
-        <v>-0.68128508329391479</v>
+        <v>-0.68167203664779663</v>
       </c>
       <c r="D125" s="2">
         <v>-0.36088427901268005</v>
       </c>
       <c r="E125" s="2">
-        <v>-0.55652213096618652</v>
+        <v>-0.55750876665115356</v>
       </c>
     </row>
     <row r="126">
@@ -2174,13 +2174,13 @@
         <v>-0.236191526055336</v>
       </c>
       <c r="C126" s="2">
-        <v>-0.41374695301055908</v>
+        <v>-0.41618648171424866</v>
       </c>
       <c r="D126" s="2">
-        <v>-0.34793159365653992</v>
+        <v>-0.42693674564361572</v>
       </c>
       <c r="E126" s="2">
-        <v>-0.54145413637161255</v>
+        <v>-0.63037717342376709</v>
       </c>
     </row>
     <row r="127">
@@ -2191,13 +2191,13 @@
         <v>0.01645464263856411</v>
       </c>
       <c r="C127" s="2">
-        <v>-0.21673934161663055</v>
+        <v>-0.22001640498638153</v>
       </c>
       <c r="D127" s="2">
-        <v>-0.36067560315132141</v>
+        <v>-0.4479634165763855</v>
       </c>
       <c r="E127" s="2">
-        <v>-0.56158918142318726</v>
+        <v>-0.6590535044670105</v>
       </c>
     </row>
     <row r="128">
@@ -2208,13 +2208,13 @@
         <v>-0.29586023092269897</v>
       </c>
       <c r="C128" s="2">
-        <v>-0.54441183805465698</v>
+        <v>-0.54631489515304565</v>
       </c>
       <c r="D128" s="2">
-        <v>-0.33026060461997986</v>
+        <v>-0.43436306715011597</v>
       </c>
       <c r="E128" s="2">
-        <v>-0.54700034856796265</v>
+        <v>-0.66022026538848877</v>
       </c>
     </row>
     <row r="129">
@@ -2225,23 +2225,31 @@
         <v>-0.3189147412776947</v>
       </c>
       <c r="C129" s="2">
-        <v>-0.59952956438064575</v>
+        <v>-0.60016769170761108</v>
       </c>
       <c r="D129" s="2">
-        <v>-0.25733029842376709</v>
+        <v>-0.39093825221061707</v>
       </c>
       <c r="E129" s="2">
-        <v>-0.49114257097244263</v>
+        <v>-0.63276815414428711</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1">
         <v>45170</v>
       </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
+      <c r="B130" s="2">
+        <v>-1.0589779615402222</v>
+      </c>
+      <c r="C130" s="2">
+        <v>-1.3322513103485107</v>
+      </c>
+      <c r="D130" s="2">
+        <v>-0.3786979615688324</v>
+      </c>
+      <c r="E130" s="2">
+        <v>-0.62298732995986939</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
@@ -2297,6 +2305,51 @@
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
     </row>
+    <row r="137">
+      <c r="A137" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/SCE_skewness_lt.xlsx
+++ b/SCE_skewness_lt.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -151,13 +151,13 @@
         <v>0.78268885612487793</v>
       </c>
       <c r="C7" s="2">
-        <v>0.45411121845245361</v>
+        <v>0.45398250222206116</v>
       </c>
       <c r="D7" s="2">
         <v>0.2218918651342392</v>
       </c>
       <c r="E7" s="2">
-        <v>-0.0039430833421647549</v>
+        <v>-0.0053922827355563641</v>
       </c>
     </row>
     <row r="8">
@@ -168,13 +168,13 @@
         <v>0.15686279535293579</v>
       </c>
       <c r="C8" s="2">
-        <v>-0.082015626132488251</v>
+        <v>-0.0869898721575737</v>
       </c>
       <c r="D8" s="2">
         <v>0.17378032207489014</v>
       </c>
       <c r="E8" s="2">
-        <v>-0.04067089781165123</v>
+        <v>-0.042079031467437744</v>
       </c>
     </row>
     <row r="9">
@@ -185,13 +185,13 @@
         <v>0.18897454440593719</v>
       </c>
       <c r="C9" s="2">
-        <v>-0.0048155141994357109</v>
+        <v>-0.0041081965900957584</v>
       </c>
       <c r="D9" s="2">
         <v>0.088357903063297272</v>
       </c>
       <c r="E9" s="2">
-        <v>-0.17637014389038086</v>
+        <v>-0.17819015681743622</v>
       </c>
     </row>
     <row r="10">
@@ -202,13 +202,13 @@
         <v>-0.74811232089996338</v>
       </c>
       <c r="C10" s="2">
-        <v>-0.9796377420425415</v>
+        <v>-0.97767353057861328</v>
       </c>
       <c r="D10" s="2">
         <v>-0.00062036514282226563</v>
       </c>
       <c r="E10" s="2">
-        <v>-0.28362932801246643</v>
+        <v>-0.28537476062774658</v>
       </c>
     </row>
     <row r="11">
@@ -219,13 +219,13 @@
         <v>0.72904545068740845</v>
       </c>
       <c r="C11" s="2">
-        <v>0.59264224767684937</v>
+        <v>0.58782768249511719</v>
       </c>
       <c r="D11" s="2">
         <v>-0.034015536308288574</v>
       </c>
       <c r="E11" s="2">
-        <v>-0.30642709136009216</v>
+        <v>-0.30806568264961243</v>
       </c>
     </row>
     <row r="12">
@@ -236,13 +236,13 @@
         <v>-0.066777423024177551</v>
       </c>
       <c r="C12" s="2">
-        <v>-0.22430996596813202</v>
+        <v>-0.22551277279853821</v>
       </c>
       <c r="D12" s="2">
         <v>-0.14139465987682343</v>
       </c>
       <c r="E12" s="2">
-        <v>-0.41026148200035095</v>
+        <v>-0.41234919428825378</v>
       </c>
     </row>
     <row r="13">
@@ -253,13 +253,13 @@
         <v>-0.42417660355567932</v>
       </c>
       <c r="C13" s="2">
-        <v>-0.99056565761566162</v>
+        <v>-0.99485689401626587</v>
       </c>
       <c r="D13" s="2">
         <v>-0.26401475071907043</v>
       </c>
       <c r="E13" s="2">
-        <v>-0.53132051229476929</v>
+        <v>-0.53298312425613403</v>
       </c>
     </row>
     <row r="14">
@@ -270,13 +270,13 @@
         <v>-0.62346822023391724</v>
       </c>
       <c r="C14" s="2">
-        <v>-1.0344434976577759</v>
+        <v>-1.0356670618057251</v>
       </c>
       <c r="D14" s="2">
         <v>-0.38697963953018189</v>
       </c>
       <c r="E14" s="2">
-        <v>-0.65946799516677857</v>
+        <v>-0.66156893968582153</v>
       </c>
     </row>
     <row r="15">
@@ -287,13 +287,13 @@
         <v>-0.30117690563201904</v>
       </c>
       <c r="C15" s="2">
-        <v>-0.48880934715270996</v>
+        <v>-0.48959311842918396</v>
       </c>
       <c r="D15" s="2">
         <v>-0.42463892698287964</v>
       </c>
       <c r="E15" s="2">
-        <v>-0.68845677375793457</v>
+        <v>-0.69126540422439575</v>
       </c>
     </row>
     <row r="16">
@@ -304,13 +304,13 @@
         <v>-0.18372327089309692</v>
       </c>
       <c r="C16" s="2">
-        <v>-0.4803982675075531</v>
+        <v>-0.48456904292106629</v>
       </c>
       <c r="D16" s="2">
         <v>-0.53174930810928345</v>
       </c>
       <c r="E16" s="2">
-        <v>-0.79699873924255371</v>
+        <v>-0.79966354370117188</v>
       </c>
     </row>
     <row r="17">
@@ -321,13 +321,13 @@
         <v>-0.94671797752380371</v>
       </c>
       <c r="C17" s="2">
-        <v>-1.1715470552444458</v>
+        <v>-1.1726950407028198</v>
       </c>
       <c r="D17" s="2">
         <v>-0.53817242383956909</v>
       </c>
       <c r="E17" s="2">
-        <v>-0.82891011238098145</v>
+        <v>-0.83156973123550415</v>
       </c>
     </row>
     <row r="18">
@@ -338,13 +338,13 @@
         <v>-0.9177095890045166</v>
       </c>
       <c r="C18" s="2">
-        <v>-1.1581425666809082</v>
+        <v>-1.1613808870315552</v>
       </c>
       <c r="D18" s="2">
         <v>-0.4437943696975708</v>
       </c>
       <c r="E18" s="2">
-        <v>-0.68486869335174561</v>
+        <v>-0.68723970651626587</v>
       </c>
     </row>
     <row r="19">
@@ -355,13 +355,13 @@
         <v>-1.0870456695556641</v>
       </c>
       <c r="C19" s="2">
-        <v>-1.2405366897583008</v>
+        <v>-1.2449413537979126</v>
       </c>
       <c r="D19" s="2">
         <v>-0.37045866250991821</v>
       </c>
       <c r="E19" s="2">
-        <v>-0.60749185085296631</v>
+        <v>-0.61039578914642334</v>
       </c>
     </row>
     <row r="20">
@@ -372,13 +372,13 @@
         <v>-0.2349483072757721</v>
       </c>
       <c r="C20" s="2">
-        <v>-0.38423556089401245</v>
+        <v>-0.38775599002838135</v>
       </c>
       <c r="D20" s="2">
         <v>-0.3531804084777832</v>
       </c>
       <c r="E20" s="2">
-        <v>-0.59338849782943726</v>
+        <v>-0.59673619270324707</v>
       </c>
     </row>
     <row r="21">
@@ -389,13 +389,13 @@
         <v>-0.12458525598049164</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.5115121603012085</v>
+        <v>-0.51266813278198242</v>
       </c>
       <c r="D21" s="2">
         <v>-0.40877041220664978</v>
       </c>
       <c r="E21" s="2">
-        <v>-0.63915491104125977</v>
+        <v>-0.64239418506622314</v>
       </c>
     </row>
     <row r="22">
@@ -406,13 +406,13 @@
         <v>0.4252258837223053</v>
       </c>
       <c r="C22" s="2">
-        <v>0.30580675601959229</v>
+        <v>0.30411311984062195</v>
       </c>
       <c r="D22" s="2">
         <v>-0.26891836524009705</v>
       </c>
       <c r="E22" s="2">
-        <v>-0.48476284742355347</v>
+        <v>-0.48794600367546082</v>
       </c>
     </row>
     <row r="23">
@@ -423,13 +423,13 @@
         <v>0.036553103476762772</v>
       </c>
       <c r="C23" s="2">
-        <v>-0.33805152773857117</v>
+        <v>-0.34407144784927368</v>
       </c>
       <c r="D23" s="2">
         <v>-0.2529655396938324</v>
       </c>
       <c r="E23" s="2">
-        <v>-0.46996226906776428</v>
+        <v>-0.47311645746231079</v>
       </c>
     </row>
     <row r="24">
@@ -440,13 +440,13 @@
         <v>-0.14567272365093231</v>
       </c>
       <c r="C24" s="2">
-        <v>-0.36187922954559326</v>
+        <v>-0.36665719747543335</v>
       </c>
       <c r="D24" s="2">
         <v>-0.16137813031673431</v>
       </c>
       <c r="E24" s="2">
-        <v>-0.39170125126838684</v>
+        <v>-0.39459249377250671</v>
       </c>
     </row>
     <row r="25">
@@ -457,13 +457,13 @@
         <v>-0.68403315544128418</v>
       </c>
       <c r="C25" s="2">
-        <v>-0.8922964334487915</v>
+        <v>-0.89549070596694946</v>
       </c>
       <c r="D25" s="2">
         <v>-0.17549227178096771</v>
       </c>
       <c r="E25" s="2">
-        <v>-0.42417088150978088</v>
+        <v>-0.42632904648780823</v>
       </c>
     </row>
     <row r="26">
@@ -474,13 +474,13 @@
         <v>0.31195035576820374</v>
       </c>
       <c r="C26" s="2">
-        <v>0.21798169612884522</v>
+        <v>0.21733860671520233</v>
       </c>
       <c r="D26" s="2">
         <v>-0.14565975964069366</v>
       </c>
       <c r="E26" s="2">
-        <v>-0.3837043046951294</v>
+        <v>-0.38585272431373596</v>
       </c>
     </row>
     <row r="27">
@@ -491,13 +491,13 @@
         <v>-0.77413409948348999</v>
       </c>
       <c r="C27" s="2">
-        <v>-1.0249372720718384</v>
+        <v>-1.0279148817062378</v>
       </c>
       <c r="D27" s="2">
         <v>-0.20474058389663696</v>
       </c>
       <c r="E27" s="2">
-        <v>-0.47230449318885803</v>
+        <v>-0.47465679049491882</v>
       </c>
     </row>
     <row r="28">
@@ -508,13 +508,13 @@
         <v>-0.26275897026062012</v>
       </c>
       <c r="C28" s="2">
-        <v>-0.53618741035461426</v>
+        <v>-0.53822571039199829</v>
       </c>
       <c r="D28" s="2">
         <v>-0.19938744604587555</v>
       </c>
       <c r="E28" s="2">
-        <v>-0.44585797190666199</v>
+        <v>-0.44808322191238403</v>
       </c>
     </row>
     <row r="29">
@@ -525,13 +525,13 @@
         <v>-0.36197552084922791</v>
       </c>
       <c r="C29" s="2">
-        <v>-0.67646223306655884</v>
+        <v>-0.67338496446609497</v>
       </c>
       <c r="D29" s="2">
         <v>-0.30479460954666138</v>
       </c>
       <c r="E29" s="2">
-        <v>-0.56234461069107056</v>
+        <v>-0.56395041942596436</v>
       </c>
     </row>
     <row r="30">
@@ -542,13 +542,13 @@
         <v>0.1439073234796524</v>
       </c>
       <c r="C30" s="2">
-        <v>-0.14731304347515106</v>
+        <v>-0.1483813226222992</v>
       </c>
       <c r="D30" s="2">
         <v>-0.1995169073343277</v>
       </c>
       <c r="E30" s="2">
-        <v>-0.46838206052780151</v>
+        <v>-0.4696904718875885</v>
       </c>
     </row>
     <row r="31">
@@ -559,13 +559,13 @@
         <v>-0.10650155693292618</v>
       </c>
       <c r="C31" s="2">
-        <v>-0.49159508943557739</v>
+        <v>-0.49512356519699097</v>
       </c>
       <c r="D31" s="2">
         <v>-0.22797907888889313</v>
       </c>
       <c r="E31" s="2">
-        <v>-0.50750148296356201</v>
+        <v>-0.50898885726928711</v>
       </c>
     </row>
     <row r="32">
@@ -576,13 +576,13 @@
         <v>0.084731347858905792</v>
       </c>
       <c r="C32" s="2">
-        <v>-0.10003285855054855</v>
+        <v>-0.10490932315587997</v>
       </c>
       <c r="D32" s="2">
         <v>-0.18691584467887878</v>
       </c>
       <c r="E32" s="2">
-        <v>-0.46223706007003784</v>
+        <v>-0.46372327208518982</v>
       </c>
     </row>
     <row r="33">
@@ -593,13 +593,13 @@
         <v>-1.0943372249603272</v>
       </c>
       <c r="C33" s="2">
-        <v>-1.4102587699890137</v>
+        <v>-1.4094618558883667</v>
       </c>
       <c r="D33" s="2">
         <v>-0.094962827861309052</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.34723606705665588</v>
+        <v>-0.34902921319007874</v>
       </c>
     </row>
     <row r="34">
@@ -610,13 +610,13 @@
         <v>0.26346617937088013</v>
       </c>
       <c r="C34" s="2">
-        <v>-0.046633541584014893</v>
+        <v>-0.047151133418083191</v>
       </c>
       <c r="D34" s="2">
         <v>-0.057181075215339661</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.29442504048347473</v>
+        <v>-0.29694214463233948</v>
       </c>
     </row>
     <row r="35">
@@ -627,13 +627,13 @@
         <v>0.055790852755308151</v>
       </c>
       <c r="C35" s="2">
-        <v>-0.13409297168254852</v>
+        <v>-0.13634717464447021</v>
       </c>
       <c r="D35" s="2">
         <v>-0.0012686821864917874</v>
       </c>
       <c r="E35" s="2">
-        <v>-0.2365124374628067</v>
+        <v>-0.23943974077701569</v>
       </c>
     </row>
     <row r="36">
@@ -644,13 +644,13 @@
         <v>-0.4045650064945221</v>
       </c>
       <c r="C36" s="2">
-        <v>-0.61755752563476563</v>
+        <v>-0.62052434682846069</v>
       </c>
       <c r="D36" s="2">
         <v>-0.031225046142935753</v>
       </c>
       <c r="E36" s="2">
-        <v>-0.21277479827404022</v>
+        <v>-0.21536749601364136</v>
       </c>
     </row>
     <row r="37">
@@ -661,13 +661,13 @@
         <v>0.56481814384460449</v>
       </c>
       <c r="C37" s="2">
-        <v>0.49882140755653381</v>
+        <v>0.49402084946632385</v>
       </c>
       <c r="D37" s="2">
         <v>-0.050016406923532486</v>
       </c>
       <c r="E37" s="2">
-        <v>-0.25136446952819824</v>
+        <v>-0.25365155935287476</v>
       </c>
     </row>
     <row r="38">
@@ -678,13 +678,13 @@
         <v>-0.02193974144756794</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.20116287469863892</v>
+        <v>-0.20460143685340881</v>
       </c>
       <c r="D38" s="2">
         <v>0.17442938685417175</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.033777955919504166</v>
+        <v>-0.036579433828592301</v>
       </c>
     </row>
     <row r="39">
@@ -695,13 +695,13 @@
         <v>0.64711886644363403</v>
       </c>
       <c r="C39" s="2">
-        <v>0.37390026450157166</v>
+        <v>0.36914029717445374</v>
       </c>
       <c r="D39" s="2">
         <v>0.10004933923482895</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.10530836135149002</v>
+        <v>-0.10799260437488556</v>
       </c>
     </row>
     <row r="40">
@@ -712,13 +712,13 @@
         <v>-0.37610882520675659</v>
       </c>
       <c r="C40" s="2">
-        <v>-0.2779562771320343</v>
+        <v>-0.2784733772277832</v>
       </c>
       <c r="D40" s="2">
         <v>0.14019784331321716</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.096774682402610779</v>
+        <v>-0.099929347634315491</v>
       </c>
     </row>
     <row r="41">
@@ -729,13 +729,13 @@
         <v>-0.084390901029109955</v>
       </c>
       <c r="C41" s="2">
-        <v>-0.44733980298042297</v>
+        <v>-0.44946596026420593</v>
       </c>
       <c r="D41" s="2">
         <v>0.22562626004219055</v>
       </c>
       <c r="E41" s="2">
-        <v>-0.011072350665926933</v>
+        <v>-0.013638712465763092</v>
       </c>
     </row>
     <row r="42">
@@ -746,13 +746,13 @@
         <v>0.9256749153137207</v>
       </c>
       <c r="C42" s="2">
-        <v>0.54801970720291138</v>
+        <v>0.54418736696243286</v>
       </c>
       <c r="D42" s="2">
         <v>0.17017181217670441</v>
       </c>
       <c r="E42" s="2">
-        <v>-0.086676746606826782</v>
+        <v>-0.089115098118782043</v>
       </c>
     </row>
     <row r="43">
@@ -763,13 +763,13 @@
         <v>-0.40595424175262451</v>
       </c>
       <c r="C43" s="2">
-        <v>-0.6904071569442749</v>
+        <v>-0.68986964225769043</v>
       </c>
       <c r="D43" s="2">
         <v>0.1400931179523468</v>
       </c>
       <c r="E43" s="2">
-        <v>-0.1368110179901123</v>
+        <v>-0.13918787240982056</v>
       </c>
     </row>
     <row r="44">
@@ -780,13 +780,13 @@
         <v>0.4171273410320282</v>
       </c>
       <c r="C44" s="2">
-        <v>-0.05728984996676445</v>
+        <v>-0.06377788633108139</v>
       </c>
       <c r="D44" s="2">
         <v>0.015988118946552277</v>
       </c>
       <c r="E44" s="2">
-        <v>-0.24549315869808197</v>
+        <v>-0.24747613072395325</v>
       </c>
     </row>
     <row r="45">
@@ -797,13 +797,13 @@
         <v>0.3642907440662384</v>
       </c>
       <c r="C45" s="2">
-        <v>0.15376342833042145</v>
+        <v>0.15609137713909149</v>
       </c>
       <c r="D45" s="2">
         <v>0.053154107183218002</v>
       </c>
       <c r="E45" s="2">
-        <v>-0.2535090446472168</v>
+        <v>-0.25530052185058594</v>
       </c>
     </row>
     <row r="46">
@@ -814,13 +814,13 @@
         <v>0.065728098154067993</v>
       </c>
       <c r="C46" s="2">
-        <v>-0.18161818385124207</v>
+        <v>-0.1852666437625885</v>
       </c>
       <c r="D46" s="2">
         <v>0.0014584200689569116</v>
       </c>
       <c r="E46" s="2">
-        <v>-0.27883917093276978</v>
+        <v>-0.28069865703582764</v>
       </c>
     </row>
     <row r="47">
@@ -831,13 +831,13 @@
         <v>-0.29264798760414124</v>
       </c>
       <c r="C47" s="2">
-        <v>-0.65237128734588623</v>
+        <v>-0.65525639057159424</v>
       </c>
       <c r="D47" s="2">
         <v>-0.19763895869255066</v>
       </c>
       <c r="E47" s="2">
-        <v>-0.46652725338935852</v>
+        <v>-0.4677160382270813</v>
       </c>
     </row>
     <row r="48">
@@ -848,13 +848,13 @@
         <v>-0.46982607245445252</v>
       </c>
       <c r="C48" s="2">
-        <v>-0.60423898696899414</v>
+        <v>-0.6054539680480957</v>
       </c>
       <c r="D48" s="2">
         <v>-0.20262032747268677</v>
       </c>
       <c r="E48" s="2">
-        <v>-0.46163177490234375</v>
+        <v>-0.46274802088737488</v>
       </c>
     </row>
     <row r="49">
@@ -865,13 +865,13 @@
         <v>-0.041614916175603867</v>
       </c>
       <c r="C49" s="2">
-        <v>-0.35009923577308655</v>
+        <v>-0.34889283776283264</v>
       </c>
       <c r="D49" s="2">
         <v>-0.29348841309547424</v>
       </c>
       <c r="E49" s="2">
-        <v>-0.5438917875289917</v>
+        <v>-0.54510349035263062</v>
       </c>
     </row>
     <row r="50">
@@ -882,13 +882,13 @@
         <v>-0.549652099609375</v>
       </c>
       <c r="C50" s="2">
-        <v>-0.67531108856201172</v>
+        <v>-0.67804920673370361</v>
       </c>
       <c r="D50" s="2">
         <v>-0.29693049192428589</v>
       </c>
       <c r="E50" s="2">
-        <v>-0.53788870573043823</v>
+        <v>-0.54021531343460083</v>
       </c>
     </row>
     <row r="51">
@@ -899,13 +899,13 @@
         <v>-0.86620146036148071</v>
       </c>
       <c r="C51" s="2">
-        <v>-1.141173005104065</v>
+        <v>-1.1389690637588501</v>
       </c>
       <c r="D51" s="2">
         <v>-0.33952206373214722</v>
       </c>
       <c r="E51" s="2">
-        <v>-0.58780992031097412</v>
+        <v>-0.58983045816421509</v>
       </c>
     </row>
     <row r="52">
@@ -916,13 +916,13 @@
         <v>-0.45078656077384949</v>
       </c>
       <c r="C52" s="2">
-        <v>-0.64634782075881958</v>
+        <v>-0.64515751600265503</v>
       </c>
       <c r="D52" s="2">
         <v>-0.29222095012664795</v>
       </c>
       <c r="E52" s="2">
-        <v>-0.52413386106491089</v>
+        <v>-0.52634531259536743</v>
       </c>
     </row>
     <row r="53">
@@ -933,13 +933,13 @@
         <v>-0.40068542957305908</v>
       </c>
       <c r="C53" s="2">
-        <v>-0.797629714012146</v>
+        <v>-0.8049774169921875</v>
       </c>
       <c r="D53" s="2">
         <v>-0.19391623139381409</v>
       </c>
       <c r="E53" s="2">
-        <v>-0.45198434591293335</v>
+        <v>-0.45472338795661926</v>
       </c>
     </row>
     <row r="54">
@@ -950,13 +950,13 @@
         <v>0.33331206440925598</v>
       </c>
       <c r="C54" s="2">
-        <v>0.2077910304069519</v>
+        <v>0.20008504390716553</v>
       </c>
       <c r="D54" s="2">
         <v>-0.29071322083473206</v>
       </c>
       <c r="E54" s="2">
-        <v>-0.5480535626411438</v>
+        <v>-0.55139601230621338</v>
       </c>
     </row>
     <row r="55">
@@ -967,13 +967,13 @@
         <v>-0.31759613752365112</v>
       </c>
       <c r="C55" s="2">
-        <v>-0.63090908527374268</v>
+        <v>-0.63180297613143921</v>
       </c>
       <c r="D55" s="2">
         <v>-0.22996386885643005</v>
       </c>
       <c r="E55" s="2">
-        <v>-0.49472931027412415</v>
+        <v>-0.49786683917045593</v>
       </c>
     </row>
     <row r="56">
@@ -984,13 +984,13 @@
         <v>0.13306212425231934</v>
       </c>
       <c r="C56" s="2">
-        <v>-0.07928670197725296</v>
+        <v>-0.083889663219451904</v>
       </c>
       <c r="D56" s="2">
         <v>-0.1662299782037735</v>
       </c>
       <c r="E56" s="2">
-        <v>-0.44504347443580627</v>
+        <v>-0.44803446531295776</v>
       </c>
     </row>
     <row r="57">
@@ -1001,13 +1001,13 @@
         <v>0.41491639614105225</v>
       </c>
       <c r="C57" s="2">
-        <v>0.045106459408998489</v>
+        <v>0.039143022149801254</v>
       </c>
       <c r="D57" s="2">
         <v>-0.13520701229572296</v>
       </c>
       <c r="E57" s="2">
-        <v>-0.43260234594345093</v>
+        <v>-0.43670240044593811</v>
       </c>
     </row>
     <row r="58">
@@ -1018,13 +1018,13 @@
         <v>-0.91278797388076782</v>
       </c>
       <c r="C58" s="2">
-        <v>-1.2147223949432373</v>
+        <v>-1.2189465761184692</v>
       </c>
       <c r="D58" s="2">
         <v>-0.09638301283121109</v>
       </c>
       <c r="E58" s="2">
-        <v>-0.38380137085914612</v>
+        <v>-0.38667330145835877</v>
       </c>
     </row>
     <row r="59">
@@ -1035,13 +1035,13 @@
         <v>-0.0029078770894557238</v>
       </c>
       <c r="C59" s="2">
-        <v>-0.1953926831483841</v>
+        <v>-0.19628648459911347</v>
       </c>
       <c r="D59" s="2">
         <v>-0.23010538518428803</v>
       </c>
       <c r="E59" s="2">
-        <v>-0.54251384735107422</v>
+        <v>-0.54444998502731323</v>
       </c>
     </row>
     <row r="60">
@@ -1052,13 +1052,13 @@
         <v>-0.29259639978408813</v>
       </c>
       <c r="C60" s="2">
-        <v>-0.69400036334991455</v>
+        <v>-0.69047755002975464</v>
       </c>
       <c r="D60" s="2">
         <v>-0.25478518009185791</v>
       </c>
       <c r="E60" s="2">
-        <v>-0.5640869140625</v>
+        <v>-0.56544399261474609</v>
       </c>
     </row>
     <row r="61">
@@ -1069,13 +1069,13 @@
         <v>-0.17157986760139465</v>
       </c>
       <c r="C61" s="2">
-        <v>-0.5343775749206543</v>
+        <v>-0.54316908121109009</v>
       </c>
       <c r="D61" s="2">
         <v>-0.33349129557609558</v>
       </c>
       <c r="E61" s="2">
-        <v>-0.64284449815750122</v>
+        <v>-0.64411401748657227</v>
       </c>
     </row>
     <row r="62">
@@ -1086,13 +1086,13 @@
         <v>-0.051269475370645523</v>
       </c>
       <c r="C62" s="2">
-        <v>-0.35842105746269226</v>
+        <v>-0.35471555590629578</v>
       </c>
       <c r="D62" s="2">
         <v>-0.34285661578178406</v>
       </c>
       <c r="E62" s="2">
-        <v>-0.63647621870040894</v>
+        <v>-0.63727998733520508</v>
       </c>
     </row>
     <row r="63">
@@ -1103,13 +1103,13 @@
         <v>-0.87018924951553345</v>
       </c>
       <c r="C63" s="2">
-        <v>-1.2206209897994995</v>
+        <v>-1.2199050188064575</v>
       </c>
       <c r="D63" s="2">
         <v>-0.29188269376754761</v>
       </c>
       <c r="E63" s="2">
-        <v>-0.58438587188720703</v>
+        <v>-0.58424443006515503</v>
       </c>
     </row>
     <row r="64">
@@ -1120,13 +1120,13 @@
         <v>-0.53971433639526367</v>
       </c>
       <c r="C64" s="2">
-        <v>-0.82506716251373291</v>
+        <v>-0.82074898481369019</v>
       </c>
       <c r="D64" s="2">
         <v>-0.30785155296325684</v>
       </c>
       <c r="E64" s="2">
-        <v>-0.60533356666564941</v>
+        <v>-0.6048848032951355</v>
       </c>
     </row>
     <row r="65">
@@ -1137,13 +1137,13 @@
         <v>-0.57529282569885254</v>
       </c>
       <c r="C65" s="2">
-        <v>-0.78810495138168335</v>
+        <v>-0.7919197678565979</v>
       </c>
       <c r="D65" s="2">
         <v>-0.15254397690296173</v>
       </c>
       <c r="E65" s="2">
-        <v>-0.42521753907203674</v>
+        <v>-0.42498660087585449</v>
       </c>
     </row>
     <row r="66">
@@ -1154,13 +1154,13 @@
         <v>0.33062833547592163</v>
       </c>
       <c r="C66" s="2">
-        <v>0.10242099314928055</v>
+        <v>0.10064917057752609</v>
       </c>
       <c r="D66" s="2">
         <v>-0.16346608102321625</v>
       </c>
       <c r="E66" s="2">
-        <v>-0.419770747423172</v>
+        <v>-0.41918200254440308</v>
       </c>
     </row>
     <row r="67">
@@ -1171,13 +1171,13 @@
         <v>-0.45402267575263977</v>
       </c>
       <c r="C67" s="2">
-        <v>-0.74590921401977539</v>
+        <v>-0.74162667989730835</v>
       </c>
       <c r="D67" s="2">
         <v>-0.29474163055419922</v>
       </c>
       <c r="E67" s="2">
-        <v>-0.55986809730529785</v>
+        <v>-0.56016349792480469</v>
       </c>
     </row>
     <row r="68">
@@ -1188,13 +1188,13 @@
         <v>-0.14662759006023407</v>
       </c>
       <c r="C68" s="2">
-        <v>-0.38392198085784912</v>
+        <v>-0.38204994797706604</v>
       </c>
       <c r="D68" s="2">
         <v>-0.093412399291992188</v>
       </c>
       <c r="E68" s="2">
-        <v>-0.34941181540489197</v>
+        <v>-0.35041216015815735</v>
       </c>
     </row>
     <row r="69">
@@ -1205,13 +1205,13 @@
         <v>1.1051719188690186</v>
       </c>
       <c r="C69" s="2">
-        <v>0.9270440936088562</v>
+        <v>0.92860639095306396</v>
       </c>
       <c r="D69" s="2">
         <v>-0.12076326459646225</v>
       </c>
       <c r="E69" s="2">
-        <v>-0.38255667686462402</v>
+        <v>-0.38469946384429932</v>
       </c>
     </row>
     <row r="70">
@@ -1222,13 +1222,13 @@
         <v>-0.26987883448600769</v>
       </c>
       <c r="C70" s="2">
-        <v>-0.48535647988319397</v>
+        <v>-0.49092757701873779</v>
       </c>
       <c r="D70" s="2">
         <v>-0.17930825054645538</v>
       </c>
       <c r="E70" s="2">
-        <v>-0.43739303946495056</v>
+        <v>-0.43948116898536682</v>
       </c>
     </row>
     <row r="71">
@@ -1239,13 +1239,13 @@
         <v>-1.2327494621276856</v>
       </c>
       <c r="C71" s="2">
-        <v>-1.6192973852157593</v>
+        <v>-1.6235491037368774</v>
       </c>
       <c r="D71" s="2">
         <v>-0.27727213501930237</v>
       </c>
       <c r="E71" s="2">
-        <v>-0.53159809112548828</v>
+        <v>-0.53394901752471924</v>
       </c>
     </row>
     <row r="72">
@@ -1256,13 +1256,13 @@
         <v>0.94177389144897461</v>
       </c>
       <c r="C72" s="2">
-        <v>0.67348581552505493</v>
+        <v>0.66785705089569092</v>
       </c>
       <c r="D72" s="2">
         <v>-0.33878284692764282</v>
       </c>
       <c r="E72" s="2">
-        <v>-0.5890965461730957</v>
+        <v>-0.59181022644042969</v>
       </c>
     </row>
     <row r="73">
@@ -1273,13 +1273,13 @@
         <v>-0.78587216138839722</v>
       </c>
       <c r="C73" s="2">
-        <v>-1.1233710050582886</v>
+        <v>-1.1293348073959351</v>
       </c>
       <c r="D73" s="2">
         <v>-0.29063433408737183</v>
       </c>
       <c r="E73" s="2">
-        <v>-0.53512650728225708</v>
+        <v>-0.53859394788742066</v>
       </c>
     </row>
     <row r="74">
@@ -1290,13 +1290,13 @@
         <v>-1.1021976470947266</v>
       </c>
       <c r="C74" s="2">
-        <v>-1.2816321849822998</v>
+        <v>-1.2849551439285278</v>
       </c>
       <c r="D74" s="2">
         <v>-0.41044247150421143</v>
       </c>
       <c r="E74" s="2">
-        <v>-0.65533232688903809</v>
+        <v>-0.65896159410476685</v>
       </c>
     </row>
     <row r="75">
@@ -1307,13 +1307,13 @@
         <v>-0.55104660987854004</v>
       </c>
       <c r="C75" s="2">
-        <v>-0.74542462825775146</v>
+        <v>-0.7495613694190979</v>
       </c>
       <c r="D75" s="2">
         <v>-0.36674642562866211</v>
       </c>
       <c r="E75" s="2">
-        <v>-0.61385345458984375</v>
+        <v>-0.61690223217010498</v>
       </c>
     </row>
     <row r="76">
@@ -1324,13 +1324,13 @@
         <v>-1.0076190233230591</v>
       </c>
       <c r="C76" s="2">
-        <v>-1.2633953094482422</v>
+        <v>-1.2623776197433472</v>
       </c>
       <c r="D76" s="2">
         <v>-0.17389242351055145</v>
       </c>
       <c r="E76" s="2">
-        <v>-0.40512192249298096</v>
+        <v>-0.40737658739089966</v>
       </c>
     </row>
     <row r="77">
@@ -1341,13 +1341,13 @@
         <v>0.28670898079872131</v>
       </c>
       <c r="C77" s="2">
-        <v>0.10180839896202087</v>
+        <v>0.096896715462207794</v>
       </c>
       <c r="D77" s="2">
         <v>-0.21892324090003967</v>
       </c>
       <c r="E77" s="2">
-        <v>-0.44541710615158081</v>
+        <v>-0.44678375124931335</v>
       </c>
     </row>
     <row r="78">
@@ -1358,13 +1358,13 @@
         <v>0.026898570358753204</v>
       </c>
       <c r="C78" s="2">
-        <v>-0.15480825304985046</v>
+        <v>-0.15470270812511444</v>
       </c>
       <c r="D78" s="2">
         <v>-0.10211180150508881</v>
       </c>
       <c r="E78" s="2">
-        <v>-0.31227710843086243</v>
+        <v>-0.31376206874847412</v>
       </c>
     </row>
     <row r="79">
@@ -1375,13 +1375,13 @@
         <v>0.12338563054800034</v>
       </c>
       <c r="C79" s="2">
-        <v>-0.11204638332128525</v>
+        <v>-0.11239288747310638</v>
       </c>
       <c r="D79" s="2">
         <v>-0.033451300114393234</v>
       </c>
       <c r="E79" s="2">
-        <v>-0.2540205717086792</v>
+        <v>-0.25521796941757202</v>
       </c>
     </row>
     <row r="80">
@@ -1392,13 +1392,13 @@
         <v>0.50293654203414917</v>
       </c>
       <c r="C80" s="2">
-        <v>0.25928622484207153</v>
+        <v>0.26218140125274658</v>
       </c>
       <c r="D80" s="2">
         <v>-0.011834267526865006</v>
       </c>
       <c r="E80" s="2">
-        <v>-0.25983867049217224</v>
+        <v>-0.26138994097709656</v>
       </c>
     </row>
     <row r="81">
@@ -1409,13 +1409,13 @@
         <v>0.53649652004241943</v>
       </c>
       <c r="C81" s="2">
-        <v>0.31082922220230103</v>
+        <v>0.31319254636764526</v>
       </c>
       <c r="D81" s="2">
         <v>0.067942298948764801</v>
       </c>
       <c r="E81" s="2">
-        <v>-0.18542198836803436</v>
+        <v>-0.18657940626144409</v>
       </c>
     </row>
     <row r="82">
@@ -1426,13 +1426,13 @@
         <v>0.26543080806732178</v>
       </c>
       <c r="C82" s="2">
-        <v>0.074888959527015686</v>
+        <v>0.067860379815101624</v>
       </c>
       <c r="D82" s="2">
         <v>0.079213529825210571</v>
       </c>
       <c r="E82" s="2">
-        <v>-0.17664328217506409</v>
+        <v>-0.17709581553936005</v>
       </c>
     </row>
     <row r="83">
@@ -1443,13 +1443,13 @@
         <v>-0.48425310850143433</v>
       </c>
       <c r="C83" s="2">
-        <v>-0.75732326507568359</v>
+        <v>-0.75805830955505371</v>
       </c>
       <c r="D83" s="2">
         <v>-0.035879045724868774</v>
       </c>
       <c r="E83" s="2">
-        <v>-0.30353614687919617</v>
+        <v>-0.30422422289848328</v>
       </c>
     </row>
     <row r="84">
@@ -1460,13 +1460,13 @@
         <v>-0.35649332404136658</v>
       </c>
       <c r="C84" s="2">
-        <v>-0.79778760671615601</v>
+        <v>-0.80510908365249634</v>
       </c>
       <c r="D84" s="2">
         <v>0.021520733833312988</v>
       </c>
       <c r="E84" s="2">
-        <v>-0.23418326675891876</v>
+        <v>-0.23472267389297485</v>
       </c>
     </row>
     <row r="85">
@@ -1477,13 +1477,13 @@
         <v>-0.28962990641593933</v>
       </c>
       <c r="C85" s="2">
-        <v>-0.59364515542984009</v>
+        <v>-0.58908271789550781</v>
       </c>
       <c r="D85" s="2">
         <v>-0.077597707509994507</v>
       </c>
       <c r="E85" s="2">
-        <v>-0.33803069591522217</v>
+        <v>-0.3382384181022644</v>
       </c>
     </row>
     <row r="86">
@@ -1494,13 +1494,13 @@
         <v>0.38815003633499146</v>
       </c>
       <c r="C86" s="2">
-        <v>0.18081676959991455</v>
+        <v>0.1822490394115448</v>
       </c>
       <c r="D86" s="2">
         <v>-0.16843967139720917</v>
       </c>
       <c r="E86" s="2">
-        <v>-0.41814804077148438</v>
+        <v>-0.41850811243057251</v>
       </c>
     </row>
     <row r="87">
@@ -1511,13 +1511,13 @@
         <v>-1.0089346170425415</v>
       </c>
       <c r="C87" s="2">
-        <v>-1.2968441247940064</v>
+        <v>-1.2988584041595459</v>
       </c>
       <c r="D87" s="2">
         <v>-0.27148890495300293</v>
       </c>
       <c r="E87" s="2">
-        <v>-0.51336413621902466</v>
+        <v>-0.51322358846664429</v>
       </c>
     </row>
     <row r="88">
@@ -1528,13 +1528,13 @@
         <v>0.6399836540222168</v>
       </c>
       <c r="C88" s="2">
-        <v>0.51212954521179199</v>
+        <v>0.51312112808227539</v>
       </c>
       <c r="D88" s="2">
         <v>-0.28811508417129517</v>
       </c>
       <c r="E88" s="2">
-        <v>-0.5227239727973938</v>
+        <v>-0.5224616527557373</v>
       </c>
     </row>
     <row r="89">
@@ -1545,13 +1545,13 @@
         <v>-0.38912945985794067</v>
       </c>
       <c r="C89" s="2">
-        <v>-0.67534047365188599</v>
+        <v>-0.66946029663085938</v>
       </c>
       <c r="D89" s="2">
         <v>-0.29760932922363281</v>
       </c>
       <c r="E89" s="2">
-        <v>-0.51144242286682129</v>
+        <v>-0.51061809062957764</v>
       </c>
     </row>
     <row r="90">
@@ -1562,13 +1562,13 @@
         <v>-0.28108114004135132</v>
       </c>
       <c r="C90" s="2">
-        <v>-0.41022691130638123</v>
+        <v>-0.40923488140106201</v>
       </c>
       <c r="D90" s="2">
         <v>-0.17618143558502197</v>
       </c>
       <c r="E90" s="2">
-        <v>-0.38984981179237366</v>
+        <v>-0.38916870951652527</v>
       </c>
     </row>
     <row r="91">
@@ -1579,13 +1579,13 @@
         <v>-0.66201239824295044</v>
       </c>
       <c r="C91" s="2">
-        <v>-0.78205579519271851</v>
+        <v>-0.78457885980606079</v>
       </c>
       <c r="D91" s="2">
         <v>-0.27070972323417664</v>
       </c>
       <c r="E91" s="2">
-        <v>-0.47887319326400757</v>
+        <v>-0.47818958759307861</v>
       </c>
     </row>
     <row r="92">
@@ -1596,13 +1596,13 @@
         <v>-0.63388866186141968</v>
       </c>
       <c r="C92" s="2">
-        <v>-0.84156191349029541</v>
+        <v>-0.84120082855224609</v>
       </c>
       <c r="D92" s="2">
         <v>-0.19565790891647339</v>
       </c>
       <c r="E92" s="2">
-        <v>-0.40319919586181641</v>
+        <v>-0.40233588218688965</v>
       </c>
     </row>
     <row r="93">
@@ -1613,13 +1613,13 @@
         <v>-0.44194155931472778</v>
       </c>
       <c r="C93" s="2">
-        <v>-0.69625359773635864</v>
+        <v>-0.69851696491241455</v>
       </c>
       <c r="D93" s="2">
         <v>-0.30421113967895508</v>
       </c>
       <c r="E93" s="2">
-        <v>-0.51376605033874512</v>
+        <v>-0.51358270645141602</v>
       </c>
     </row>
     <row r="94">
@@ -1630,13 +1630,13 @@
         <v>0.80322116613388062</v>
       </c>
       <c r="C94" s="2">
-        <v>0.50068813562393189</v>
+        <v>0.50396180152893067</v>
       </c>
       <c r="D94" s="2">
         <v>-0.21648773550987244</v>
       </c>
       <c r="E94" s="2">
-        <v>-0.40792924165725708</v>
+        <v>-0.40878579020500183</v>
       </c>
     </row>
     <row r="95">
@@ -1647,13 +1647,13 @@
         <v>-0.46260461211204529</v>
       </c>
       <c r="C95" s="2">
-        <v>-0.62039363384246826</v>
+        <v>-0.6189388632774353</v>
       </c>
       <c r="D95" s="2">
         <v>-0.15596693754196167</v>
       </c>
       <c r="E95" s="2">
-        <v>-0.37090092897415161</v>
+        <v>-0.3721528947353363</v>
       </c>
     </row>
     <row r="96">
@@ -1664,13 +1664,13 @@
         <v>-0.33346819877624512</v>
       </c>
       <c r="C96" s="2">
-        <v>-0.61577814817428589</v>
+        <v>-0.61617523431777954</v>
       </c>
       <c r="D96" s="2">
         <v>-0.12752220034599304</v>
       </c>
       <c r="E96" s="2">
-        <v>-0.34747639298439026</v>
+        <v>-0.34804922342300415</v>
       </c>
     </row>
     <row r="97">
@@ -1681,13 +1681,13 @@
         <v>-0.33699530363082886</v>
       </c>
       <c r="C97" s="2">
-        <v>-0.48297202587127686</v>
+        <v>-0.48810037970542908</v>
       </c>
       <c r="D97" s="2">
         <v>-0.055713094770908356</v>
       </c>
       <c r="E97" s="2">
-        <v>-0.29047080874443054</v>
+        <v>-0.29106360673904419</v>
       </c>
     </row>
     <row r="98">
@@ -1698,13 +1698,13 @@
         <v>0.40038111805915833</v>
       </c>
       <c r="C98" s="2">
-        <v>0.27719065546989441</v>
+        <v>0.27371200919151306</v>
       </c>
       <c r="D98" s="2">
         <v>-0.074422493577003479</v>
       </c>
       <c r="E98" s="2">
-        <v>-0.32297998666763306</v>
+        <v>-0.32356294989585876</v>
       </c>
     </row>
     <row r="99">
@@ -1715,13 +1715,13 @@
         <v>0.26360598206520081</v>
       </c>
       <c r="C99" s="2">
-        <v>-0.076972059905529022</v>
+        <v>-0.079538851976394653</v>
       </c>
       <c r="D99" s="2">
         <v>-0.15668345987796784</v>
       </c>
       <c r="E99" s="2">
-        <v>-0.39810800552368164</v>
+        <v>-0.39949056506156921</v>
       </c>
     </row>
     <row r="100">
@@ -1732,13 +1732,13 @@
         <v>-0.40600967407226563</v>
       </c>
       <c r="C100" s="2">
-        <v>-0.5712348222732544</v>
+        <v>-0.5676456093788147</v>
       </c>
       <c r="D100" s="2">
         <v>-0.18423593044281006</v>
       </c>
       <c r="E100" s="2">
-        <v>-0.45079109072685242</v>
+        <v>-0.45224475860595703</v>
       </c>
     </row>
     <row r="101">
@@ -1749,13 +1749,13 @@
         <v>0.01239322405308485</v>
       </c>
       <c r="C101" s="2">
-        <v>-0.32851186394691467</v>
+        <v>-0.32833027839660645</v>
       </c>
       <c r="D101" s="2">
         <v>-0.1804722398519516</v>
       </c>
       <c r="E101" s="2">
-        <v>-0.42711982131004333</v>
+        <v>-0.42868894338607788</v>
       </c>
     </row>
     <row r="102">
@@ -1766,13 +1766,13 @@
         <v>-0.61032617092132568</v>
       </c>
       <c r="C102" s="2">
-        <v>-0.98883605003356934</v>
+        <v>-0.99101114273071289</v>
       </c>
       <c r="D102" s="2">
         <v>-0.15176080167293549</v>
       </c>
       <c r="E102" s="2">
-        <v>-0.42072269320487976</v>
+        <v>-0.42117199301719666</v>
       </c>
     </row>
     <row r="103">
@@ -1783,13 +1783,13 @@
         <v>0.062872469425201416</v>
       </c>
       <c r="C103" s="2">
-        <v>-0.17546418309211731</v>
+        <v>-0.17938664555549622</v>
       </c>
       <c r="D103" s="2">
         <v>-0.28409120440483093</v>
       </c>
       <c r="E103" s="2">
-        <v>-0.56556057929992676</v>
+        <v>-0.56512308120727539</v>
       </c>
     </row>
     <row r="104">
@@ -1800,13 +1800,13 @@
         <v>-0.71057683229446411</v>
       </c>
       <c r="C104" s="2">
-        <v>-1.0945411920547485</v>
+        <v>-1.093726634979248</v>
       </c>
       <c r="D104" s="2">
         <v>-0.34727656841278076</v>
       </c>
       <c r="E104" s="2">
-        <v>-0.60396683216094971</v>
+        <v>-0.60350662469863892</v>
       </c>
     </row>
     <row r="105">
@@ -1817,13 +1817,13 @@
         <v>-0.29959499835968018</v>
       </c>
       <c r="C105" s="2">
-        <v>-0.40273690223693848</v>
+        <v>-0.40417283773422241</v>
       </c>
       <c r="D105" s="2">
         <v>-0.35890316963195801</v>
       </c>
       <c r="E105" s="2">
-        <v>-0.63341832160949707</v>
+        <v>-0.6334228515625</v>
       </c>
     </row>
     <row r="106">
@@ -1834,13 +1834,13 @@
         <v>-0.078592367470264435</v>
       </c>
       <c r="C106" s="2">
-        <v>-0.42539781332015991</v>
+        <v>-0.42044785618782043</v>
       </c>
       <c r="D106" s="2">
         <v>-0.40842324495315552</v>
       </c>
       <c r="E106" s="2">
-        <v>-0.6559186577796936</v>
+        <v>-0.65621870756149292</v>
       </c>
     </row>
     <row r="107">
@@ -1851,13 +1851,13 @@
         <v>-0.79059237241744995</v>
       </c>
       <c r="C107" s="2">
-        <v>-1.0263501405715942</v>
+        <v>-1.0218477249145508</v>
       </c>
       <c r="D107" s="2">
         <v>-0.4242800772190094</v>
       </c>
       <c r="E107" s="2">
-        <v>-0.64923065900802612</v>
+        <v>-0.64920681715011597</v>
       </c>
     </row>
     <row r="108">
@@ -1868,13 +1868,13 @@
         <v>-0.30506247282028198</v>
       </c>
       <c r="C108" s="2">
-        <v>-0.42262831330299378</v>
+        <v>-0.42499083280563354</v>
       </c>
       <c r="D108" s="2">
         <v>-0.45394784212112427</v>
       </c>
       <c r="E108" s="2">
-        <v>-0.67029041051864624</v>
+        <v>-0.67000126838684082</v>
       </c>
     </row>
     <row r="109">
@@ -1885,13 +1885,13 @@
         <v>-0.51064908504486084</v>
       </c>
       <c r="C109" s="2">
-        <v>-0.83629828691482544</v>
+        <v>-0.83689182996749878</v>
       </c>
       <c r="D109" s="2">
         <v>-0.40927863121032715</v>
       </c>
       <c r="E109" s="2">
-        <v>-0.59988903999328613</v>
+        <v>-0.59966278076171875</v>
       </c>
     </row>
     <row r="110">
@@ -1902,13 +1902,13 @@
         <v>-0.4332873523235321</v>
       </c>
       <c r="C110" s="2">
-        <v>-0.53101480007171631</v>
+        <v>-0.53349262475967407</v>
       </c>
       <c r="D110" s="2">
         <v>-0.38601383566856384</v>
       </c>
       <c r="E110" s="2">
-        <v>-0.58132421970367432</v>
+        <v>-0.58084374666213989</v>
       </c>
     </row>
     <row r="111">
@@ -1919,13 +1919,13 @@
         <v>-0.75303781032562256</v>
       </c>
       <c r="C111" s="2">
-        <v>-0.92864453792572021</v>
+        <v>-0.92790454626083374</v>
       </c>
       <c r="D111" s="2">
         <v>-0.37001535296440125</v>
       </c>
       <c r="E111" s="2">
-        <v>-0.54515862464904785</v>
+        <v>-0.54544419050216675</v>
       </c>
     </row>
     <row r="112">
@@ -1936,13 +1936,13 @@
         <v>-0.20413732528686524</v>
       </c>
       <c r="C112" s="2">
-        <v>-0.36500173807144165</v>
+        <v>-0.36653634905815125</v>
       </c>
       <c r="D112" s="2">
         <v>-0.31648710370063782</v>
       </c>
       <c r="E112" s="2">
-        <v>-0.4825587272644043</v>
+        <v>-0.4832453727722168</v>
       </c>
     </row>
     <row r="113">
@@ -1953,13 +1953,13 @@
         <v>-0.3085540235042572</v>
       </c>
       <c r="C113" s="2">
-        <v>-0.46092858910560608</v>
+        <v>-0.46068039536476135</v>
       </c>
       <c r="D113" s="2">
         <v>-0.29432645440101624</v>
       </c>
       <c r="E113" s="2">
-        <v>-0.46483650803565979</v>
+        <v>-0.4651758074760437</v>
       </c>
     </row>
     <row r="114">
@@ -1970,13 +1970,13 @@
         <v>-0.090211838483810425</v>
       </c>
       <c r="C114" s="2">
-        <v>-0.23565395176410675</v>
+        <v>-0.23480167984962463</v>
       </c>
       <c r="D114" s="2">
         <v>-0.25587639212608337</v>
       </c>
       <c r="E114" s="2">
-        <v>-0.39908048510551453</v>
+        <v>-0.39956390857696533</v>
       </c>
     </row>
     <row r="115">
@@ -1987,13 +1987,13 @@
         <v>0.065394096076488495</v>
       </c>
       <c r="C115" s="2">
-        <v>-0.099907480180263519</v>
+        <v>-0.10185184329748154</v>
       </c>
       <c r="D115" s="2">
         <v>-0.25393092632293701</v>
       </c>
       <c r="E115" s="2">
-        <v>-0.40496453642845154</v>
+        <v>-0.40523579716682434</v>
       </c>
     </row>
     <row r="116">
@@ -2004,13 +2004,13 @@
         <v>-0.30883818864822388</v>
       </c>
       <c r="C116" s="2">
-        <v>-0.46295091509819031</v>
+        <v>-0.46205824613571167</v>
       </c>
       <c r="D116" s="2">
         <v>-0.24248038232326508</v>
       </c>
       <c r="E116" s="2">
-        <v>-0.3802911639213562</v>
+        <v>-0.38075703382492065</v>
       </c>
     </row>
     <row r="117">
@@ -2021,13 +2021,13 @@
         <v>-0.10561659932136536</v>
       </c>
       <c r="C117" s="2">
-        <v>-0.26312834024429321</v>
+        <v>-0.26236486434936524</v>
       </c>
       <c r="D117" s="2">
         <v>-0.27141019701957703</v>
       </c>
       <c r="E117" s="2">
-        <v>-0.41489493846893311</v>
+        <v>-0.41525077819824219</v>
       </c>
     </row>
     <row r="118">
@@ -2038,13 +2038,13 @@
         <v>-0.16459836065769196</v>
       </c>
       <c r="C118" s="2">
-        <v>-0.24449405074119568</v>
+        <v>-0.24638457596302032</v>
       </c>
       <c r="D118" s="2">
         <v>-0.26587346196174622</v>
       </c>
       <c r="E118" s="2">
-        <v>-0.40823248028755188</v>
+        <v>-0.40866199135780334</v>
       </c>
     </row>
     <row r="119">
@@ -2055,13 +2055,13 @@
         <v>-0.41577836871147156</v>
       </c>
       <c r="C119" s="2">
-        <v>-0.58397114276885986</v>
+        <v>-0.58453959226608276</v>
       </c>
       <c r="D119" s="2">
         <v>-0.31620165705680847</v>
       </c>
       <c r="E119" s="2">
-        <v>-0.45436936616897583</v>
+        <v>-0.45512205362319946</v>
       </c>
     </row>
     <row r="120">
@@ -2072,13 +2072,13 @@
         <v>-0.64998281002044678</v>
       </c>
       <c r="C120" s="2">
-        <v>-0.70658427476882935</v>
+        <v>-0.70759570598602295</v>
       </c>
       <c r="D120" s="2">
         <v>-0.40068012475967407</v>
       </c>
       <c r="E120" s="2">
-        <v>-0.53492778539657593</v>
+        <v>-0.53538155555725098</v>
       </c>
     </row>
     <row r="121">
@@ -2089,13 +2089,13 @@
         <v>-0.4645056426525116</v>
       </c>
       <c r="C121" s="2">
-        <v>-0.67643558979034424</v>
+        <v>-0.67698007822036743</v>
       </c>
       <c r="D121" s="2">
         <v>-0.41660252213478088</v>
       </c>
       <c r="E121" s="2">
-        <v>-0.55923008918762207</v>
+        <v>-0.55945444107055664</v>
       </c>
     </row>
     <row r="122">
@@ -2106,13 +2106,13 @@
         <v>-0.25872346758842468</v>
       </c>
       <c r="C122" s="2">
-        <v>-0.4009665846824646</v>
+        <v>-0.40138128399848938</v>
       </c>
       <c r="D122" s="2">
         <v>-0.43111085891723633</v>
       </c>
       <c r="E122" s="2">
-        <v>-0.5762365460395813</v>
+        <v>-0.57648932933807373</v>
       </c>
     </row>
     <row r="123">
@@ -2123,13 +2123,13 @@
         <v>-0.54316568374633789</v>
       </c>
       <c r="C123" s="2">
-        <v>-0.65088587999343872</v>
+        <v>-0.65294229984283447</v>
       </c>
       <c r="D123" s="2">
         <v>-0.41099384427070618</v>
       </c>
       <c r="E123" s="2">
-        <v>-0.573516845703125</v>
+        <v>-0.5737881064414978</v>
       </c>
     </row>
     <row r="124">
@@ -2140,13 +2140,13 @@
         <v>-0.69491207599639893</v>
       </c>
       <c r="C124" s="2">
-        <v>-0.82493311166763306</v>
+        <v>-0.8241875171661377</v>
       </c>
       <c r="D124" s="2">
         <v>-0.39766961336135864</v>
       </c>
       <c r="E124" s="2">
-        <v>-0.5693327784538269</v>
+        <v>-0.56973171234130859</v>
       </c>
     </row>
     <row r="125">
@@ -2157,13 +2157,13 @@
         <v>-0.45213967561721802</v>
       </c>
       <c r="C125" s="2">
-        <v>-0.68167203664779663</v>
+        <v>-0.67871427536010742</v>
       </c>
       <c r="D125" s="2">
         <v>-0.36088427901268005</v>
       </c>
       <c r="E125" s="2">
-        <v>-0.55750876665115356</v>
+        <v>-0.55764961242675781</v>
       </c>
     </row>
     <row r="126">
@@ -2174,13 +2174,13 @@
         <v>-0.236191526055336</v>
       </c>
       <c r="C126" s="2">
-        <v>-0.41618648171424866</v>
+        <v>-0.41567873954772949</v>
       </c>
       <c r="D126" s="2">
         <v>-0.42693674564361572</v>
       </c>
       <c r="E126" s="2">
-        <v>-0.63037717342376709</v>
+        <v>-0.6303974986076355</v>
       </c>
     </row>
     <row r="127">
@@ -2191,13 +2191,13 @@
         <v>0.01645464263856411</v>
       </c>
       <c r="C127" s="2">
-        <v>-0.22001640498638153</v>
+        <v>-0.22207358479499817</v>
       </c>
       <c r="D127" s="2">
-        <v>-0.4479634165763855</v>
+        <v>-0.3439827561378479</v>
       </c>
       <c r="E127" s="2">
-        <v>-0.6590535044670105</v>
+        <v>-0.54681932926177979</v>
       </c>
     </row>
     <row r="128">
@@ -2208,13 +2208,13 @@
         <v>-0.29586023092269897</v>
       </c>
       <c r="C128" s="2">
-        <v>-0.54631489515304565</v>
+        <v>-0.54803198575973511</v>
       </c>
       <c r="D128" s="2">
-        <v>-0.43436306715011597</v>
+        <v>-0.31330099701881409</v>
       </c>
       <c r="E128" s="2">
-        <v>-0.66022026538848877</v>
+        <v>-0.5256391167640686</v>
       </c>
     </row>
     <row r="129">
@@ -2225,13 +2225,13 @@
         <v>-0.3189147412776947</v>
       </c>
       <c r="C129" s="2">
-        <v>-0.60016769170761108</v>
+        <v>-0.59885650873184204</v>
       </c>
       <c r="D129" s="2">
-        <v>-0.39093825221061707</v>
+        <v>-0.19910748302936554</v>
       </c>
       <c r="E129" s="2">
-        <v>-0.63276815414428711</v>
+        <v>-0.4139857292175293</v>
       </c>
     </row>
     <row r="130">
@@ -2242,86 +2242,150 @@
         <v>-1.0589779615402222</v>
       </c>
       <c r="C130" s="2">
-        <v>-1.3322513103485107</v>
+        <v>-1.3317112922668457</v>
       </c>
       <c r="D130" s="2">
-        <v>-0.3786979615688324</v>
+        <v>-0.13768768310546875</v>
       </c>
       <c r="E130" s="2">
-        <v>-0.62298732995986939</v>
+        <v>-0.34907028079032898</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
         <v>45200</v>
       </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
+      <c r="B131" s="2">
+        <v>0.48786237835884094</v>
+      </c>
+      <c r="C131" s="2">
+        <v>0.35082244873046875</v>
+      </c>
+      <c r="D131" s="2">
+        <v>-0.16731062531471252</v>
+      </c>
+      <c r="E131" s="2">
+        <v>-0.3769088089466095</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1">
         <v>45231</v>
       </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
+      <c r="B132" s="2">
+        <v>-0.26702976226806641</v>
+      </c>
+      <c r="C132" s="2">
+        <v>-0.46232080459594727</v>
+      </c>
+      <c r="D132" s="2">
+        <v>-0.15201237797737122</v>
+      </c>
+      <c r="E132" s="2">
+        <v>-0.36932334303855896</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1">
         <v>45261</v>
       </c>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
+      <c r="B133" s="2">
+        <v>0.33282959461212158</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0.18069319427013397</v>
+      </c>
+      <c r="D133" s="2">
+        <v>-0.10918814688920975</v>
+      </c>
+      <c r="E133" s="2">
+        <v>-0.32050719857215881</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1">
         <v>45292</v>
       </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
+      <c r="B134" s="2">
+        <v>0.10063840448856354</v>
+      </c>
+      <c r="C134" s="2">
+        <v>-0.094475135207176208</v>
+      </c>
+      <c r="D134" s="2">
+        <v>-0.14214363694190979</v>
+      </c>
+      <c r="E134" s="2">
+        <v>-0.34222406148910522</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1">
         <v>45323</v>
       </c>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
+      <c r="B135" s="2">
+        <v>-0.50279790163040161</v>
+      </c>
+      <c r="C135" s="2">
+        <v>-0.66622567176818848</v>
+      </c>
+      <c r="D135" s="2">
+        <v>-0.027539350092411041</v>
+      </c>
+      <c r="E135" s="2">
+        <v>-0.21853816509246826</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1">
         <v>45352</v>
       </c>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
+      <c r="B136" s="2">
+        <v>0.15413878858089447</v>
+      </c>
+      <c r="C136" s="2">
+        <v>-0.15380443632602692</v>
+      </c>
+      <c r="D136" s="2">
+        <v>-0.10116817057132721</v>
+      </c>
+      <c r="E136" s="2">
+        <v>-0.299875408411026</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1">
         <v>45383</v>
       </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
+      <c r="B137" s="2">
+        <v>0.089557856321334839</v>
+      </c>
+      <c r="C137" s="2">
+        <v>-0.10868670791387558</v>
+      </c>
+      <c r="D137" s="2">
+        <v>-0.07352457195520401</v>
+      </c>
+      <c r="E137" s="2">
+        <v>-0.27280116081237793</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1">
         <v>45413</v>
       </c>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
+      <c r="B138" s="2">
+        <v>-0.61551415920257568</v>
+      </c>
+      <c r="C138" s="2">
+        <v>-0.79430824518203735</v>
+      </c>
+      <c r="D138" s="2">
+        <v>-0.15479540824890137</v>
+      </c>
+      <c r="E138" s="2">
+        <v>-0.36350002884864807</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
@@ -2350,6 +2414,60 @@
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
     </row>
+    <row r="142">
+      <c r="A142" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/SCE_skewness_lt.xlsx
+++ b/SCE_skewness_lt.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E147"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -151,13 +151,13 @@
         <v>0.78268885612487793</v>
       </c>
       <c r="C7" s="2">
-        <v>0.45398250222206116</v>
+        <v>0.45126700401306152</v>
       </c>
       <c r="D7" s="2">
         <v>0.2218918651342392</v>
       </c>
       <c r="E7" s="2">
-        <v>-0.0053922827355563641</v>
+        <v>-0.0079543497413396835</v>
       </c>
     </row>
     <row r="8">
@@ -168,13 +168,13 @@
         <v>0.15686279535293579</v>
       </c>
       <c r="C8" s="2">
-        <v>-0.0869898721575737</v>
+        <v>-0.091899752616882324</v>
       </c>
       <c r="D8" s="2">
         <v>0.17378032207489014</v>
       </c>
       <c r="E8" s="2">
-        <v>-0.042079031467437744</v>
+        <v>-0.044374551624059677</v>
       </c>
     </row>
     <row r="9">
@@ -185,13 +185,13 @@
         <v>0.18897454440593719</v>
       </c>
       <c r="C9" s="2">
-        <v>-0.0041081965900957584</v>
+        <v>-0.0043612243607640266</v>
       </c>
       <c r="D9" s="2">
         <v>0.088357903063297272</v>
       </c>
       <c r="E9" s="2">
-        <v>-0.17819015681743622</v>
+        <v>-0.1810469776391983</v>
       </c>
     </row>
     <row r="10">
@@ -202,13 +202,13 @@
         <v>-0.74811232089996338</v>
       </c>
       <c r="C10" s="2">
-        <v>-0.97767353057861328</v>
+        <v>-0.98122125864028931</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.00062036514282226563</v>
+        <v>-0.00062036514282226562</v>
       </c>
       <c r="E10" s="2">
-        <v>-0.28537476062774658</v>
+        <v>-0.2882845401763916</v>
       </c>
     </row>
     <row r="11">
@@ -219,13 +219,13 @@
         <v>0.72904545068740845</v>
       </c>
       <c r="C11" s="2">
-        <v>0.58782768249511719</v>
+        <v>0.58644348382949829</v>
       </c>
       <c r="D11" s="2">
         <v>-0.034015536308288574</v>
       </c>
       <c r="E11" s="2">
-        <v>-0.30806568264961243</v>
+        <v>-0.31021249294281006</v>
       </c>
     </row>
     <row r="12">
@@ -236,13 +236,13 @@
         <v>-0.066777423024177551</v>
       </c>
       <c r="C12" s="2">
-        <v>-0.22551277279853821</v>
+        <v>-0.2264755517244339</v>
       </c>
       <c r="D12" s="2">
         <v>-0.14139465987682343</v>
       </c>
       <c r="E12" s="2">
-        <v>-0.41234919428825378</v>
+        <v>-0.414947509765625</v>
       </c>
     </row>
     <row r="13">
@@ -253,13 +253,13 @@
         <v>-0.42417660355567932</v>
       </c>
       <c r="C13" s="2">
-        <v>-0.99485689401626587</v>
+        <v>-1.0010815858840942</v>
       </c>
       <c r="D13" s="2">
         <v>-0.26401475071907043</v>
       </c>
       <c r="E13" s="2">
-        <v>-0.53298312425613403</v>
+        <v>-0.53513509035110474</v>
       </c>
     </row>
     <row r="14">
@@ -270,13 +270,13 @@
         <v>-0.62346822023391724</v>
       </c>
       <c r="C14" s="2">
-        <v>-1.0356670618057251</v>
+        <v>-1.0389473438262939</v>
       </c>
       <c r="D14" s="2">
-        <v>-0.38697963953018189</v>
+        <v>-0.38697963953018188</v>
       </c>
       <c r="E14" s="2">
-        <v>-0.66156893968582153</v>
+        <v>-0.66375309228897095</v>
       </c>
     </row>
     <row r="15">
@@ -287,13 +287,13 @@
         <v>-0.30117690563201904</v>
       </c>
       <c r="C15" s="2">
-        <v>-0.48959311842918396</v>
+        <v>-0.48563608527183533</v>
       </c>
       <c r="D15" s="2">
         <v>-0.42463892698287964</v>
       </c>
       <c r="E15" s="2">
-        <v>-0.69126540422439575</v>
+        <v>-0.6933942437171936</v>
       </c>
     </row>
     <row r="16">
@@ -304,13 +304,13 @@
         <v>-0.18372327089309692</v>
       </c>
       <c r="C16" s="2">
-        <v>-0.48456904292106629</v>
+        <v>-0.49134838581085205</v>
       </c>
       <c r="D16" s="2">
         <v>-0.53174930810928345</v>
       </c>
       <c r="E16" s="2">
-        <v>-0.79966354370117188</v>
+        <v>-0.80179512500762939</v>
       </c>
     </row>
     <row r="17">
@@ -321,13 +321,13 @@
         <v>-0.94671797752380371</v>
       </c>
       <c r="C17" s="2">
-        <v>-1.1726950407028198</v>
+        <v>-1.1735876798629761</v>
       </c>
       <c r="D17" s="2">
         <v>-0.53817242383956909</v>
       </c>
       <c r="E17" s="2">
-        <v>-0.83156973123550415</v>
+        <v>-0.83389961719512939</v>
       </c>
     </row>
     <row r="18">
@@ -338,13 +338,13 @@
         <v>-0.9177095890045166</v>
       </c>
       <c r="C18" s="2">
-        <v>-1.1613808870315552</v>
+        <v>-1.1619235277175903</v>
       </c>
       <c r="D18" s="2">
         <v>-0.4437943696975708</v>
       </c>
       <c r="E18" s="2">
-        <v>-0.68723970651626587</v>
+        <v>-0.68923324346542358</v>
       </c>
     </row>
     <row r="19">
@@ -355,13 +355,13 @@
         <v>-1.0870456695556641</v>
       </c>
       <c r="C19" s="2">
-        <v>-1.2449413537979126</v>
+        <v>-1.247991681098938</v>
       </c>
       <c r="D19" s="2">
         <v>-0.37045866250991821</v>
       </c>
       <c r="E19" s="2">
-        <v>-0.61039578914642334</v>
+        <v>-0.61247944831848145</v>
       </c>
     </row>
     <row r="20">
@@ -369,16 +369,16 @@
         <v>41821</v>
       </c>
       <c r="B20" s="2">
-        <v>-0.2349483072757721</v>
+        <v>-0.23494830727577209</v>
       </c>
       <c r="C20" s="2">
-        <v>-0.38775599002838135</v>
+        <v>-0.38916414976119995</v>
       </c>
       <c r="D20" s="2">
         <v>-0.3531804084777832</v>
       </c>
       <c r="E20" s="2">
-        <v>-0.59673619270324707</v>
+        <v>-0.59967517852783203</v>
       </c>
     </row>
     <row r="21">
@@ -389,13 +389,13 @@
         <v>-0.12458525598049164</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.51266813278198242</v>
+        <v>-0.51541614532470703</v>
       </c>
       <c r="D21" s="2">
         <v>-0.40877041220664978</v>
       </c>
       <c r="E21" s="2">
-        <v>-0.64239418506622314</v>
+        <v>-0.64511692523956299</v>
       </c>
     </row>
     <row r="22">
@@ -406,13 +406,13 @@
         <v>0.4252258837223053</v>
       </c>
       <c r="C22" s="2">
-        <v>0.30411311984062195</v>
+        <v>0.30091604590415955</v>
       </c>
       <c r="D22" s="2">
         <v>-0.26891836524009705</v>
       </c>
       <c r="E22" s="2">
-        <v>-0.48794600367546082</v>
+        <v>-0.49097248911857605</v>
       </c>
     </row>
     <row r="23">
@@ -423,13 +423,13 @@
         <v>0.036553103476762772</v>
       </c>
       <c r="C23" s="2">
-        <v>-0.34407144784927368</v>
+        <v>-0.34816339612007141</v>
       </c>
       <c r="D23" s="2">
         <v>-0.2529655396938324</v>
       </c>
       <c r="E23" s="2">
-        <v>-0.47311645746231079</v>
+        <v>-0.47600138187408447</v>
       </c>
     </row>
     <row r="24">
@@ -440,13 +440,13 @@
         <v>-0.14567272365093231</v>
       </c>
       <c r="C24" s="2">
-        <v>-0.36665719747543335</v>
+        <v>-0.37039762735366821</v>
       </c>
       <c r="D24" s="2">
         <v>-0.16137813031673431</v>
       </c>
       <c r="E24" s="2">
-        <v>-0.39459249377250671</v>
+        <v>-0.39726114273071289</v>
       </c>
     </row>
     <row r="25">
@@ -457,13 +457,13 @@
         <v>-0.68403315544128418</v>
       </c>
       <c r="C25" s="2">
-        <v>-0.89549070596694946</v>
+        <v>-0.90032428503036499</v>
       </c>
       <c r="D25" s="2">
         <v>-0.17549227178096771</v>
       </c>
       <c r="E25" s="2">
-        <v>-0.42632904648780823</v>
+        <v>-0.42922618985176086</v>
       </c>
     </row>
     <row r="26">
@@ -474,13 +474,13 @@
         <v>0.31195035576820374</v>
       </c>
       <c r="C26" s="2">
-        <v>0.21733860671520233</v>
+        <v>0.21371228992938995</v>
       </c>
       <c r="D26" s="2">
         <v>-0.14565975964069366</v>
       </c>
       <c r="E26" s="2">
-        <v>-0.38585272431373596</v>
+        <v>-0.38854575157165527</v>
       </c>
     </row>
     <row r="27">
@@ -491,13 +491,13 @@
         <v>-0.77413409948348999</v>
       </c>
       <c r="C27" s="2">
-        <v>-1.0279148817062378</v>
+        <v>-1.0271834135055542</v>
       </c>
       <c r="D27" s="2">
         <v>-0.20474058389663696</v>
       </c>
       <c r="E27" s="2">
-        <v>-0.47465679049491882</v>
+        <v>-0.47709783911705017</v>
       </c>
     </row>
     <row r="28">
@@ -508,13 +508,13 @@
         <v>-0.26275897026062012</v>
       </c>
       <c r="C28" s="2">
-        <v>-0.53822571039199829</v>
+        <v>-0.53932958841323853</v>
       </c>
       <c r="D28" s="2">
         <v>-0.19938744604587555</v>
       </c>
       <c r="E28" s="2">
-        <v>-0.44808322191238403</v>
+        <v>-0.45014014840126038</v>
       </c>
     </row>
     <row r="29">
@@ -525,13 +525,13 @@
         <v>-0.36197552084922791</v>
       </c>
       <c r="C29" s="2">
-        <v>-0.67338496446609497</v>
+        <v>-0.67684966325759888</v>
       </c>
       <c r="D29" s="2">
         <v>-0.30479460954666138</v>
       </c>
       <c r="E29" s="2">
-        <v>-0.56395041942596436</v>
+        <v>-0.56580287218093872</v>
       </c>
     </row>
     <row r="30">
@@ -542,13 +542,13 @@
         <v>0.1439073234796524</v>
       </c>
       <c r="C30" s="2">
-        <v>-0.1483813226222992</v>
+        <v>-0.14929209649562836</v>
       </c>
       <c r="D30" s="2">
         <v>-0.1995169073343277</v>
       </c>
       <c r="E30" s="2">
-        <v>-0.4696904718875885</v>
+        <v>-0.47083809971809387</v>
       </c>
     </row>
     <row r="31">
@@ -559,13 +559,13 @@
         <v>-0.10650155693292618</v>
       </c>
       <c r="C31" s="2">
-        <v>-0.49512356519699097</v>
+        <v>-0.49605280160903931</v>
       </c>
       <c r="D31" s="2">
         <v>-0.22797907888889313</v>
       </c>
       <c r="E31" s="2">
-        <v>-0.50898885726928711</v>
+        <v>-0.51001983880996704</v>
       </c>
     </row>
     <row r="32">
@@ -576,13 +576,13 @@
         <v>0.084731347858905792</v>
       </c>
       <c r="C32" s="2">
-        <v>-0.10490932315587997</v>
+        <v>-0.10554424673318863</v>
       </c>
       <c r="D32" s="2">
         <v>-0.18691584467887878</v>
       </c>
       <c r="E32" s="2">
-        <v>-0.46372327208518982</v>
+        <v>-0.46470871567726135</v>
       </c>
     </row>
     <row r="33">
@@ -590,16 +590,16 @@
         <v>42217</v>
       </c>
       <c r="B33" s="2">
-        <v>-1.0943372249603272</v>
+        <v>-1.0943372249603271</v>
       </c>
       <c r="C33" s="2">
-        <v>-1.4094618558883667</v>
+        <v>-1.4113621711730957</v>
       </c>
       <c r="D33" s="2">
         <v>-0.094962827861309052</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.34902921319007874</v>
+        <v>-0.34936064481735229</v>
       </c>
     </row>
     <row r="34">
@@ -610,13 +610,13 @@
         <v>0.26346617937088013</v>
       </c>
       <c r="C34" s="2">
-        <v>-0.047151133418083191</v>
+        <v>-0.045641202479600906</v>
       </c>
       <c r="D34" s="2">
         <v>-0.057181075215339661</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.29694214463233948</v>
+        <v>-0.29727217555046082</v>
       </c>
     </row>
     <row r="35">
@@ -627,13 +627,13 @@
         <v>0.055790852755308151</v>
       </c>
       <c r="C35" s="2">
-        <v>-0.13634717464447021</v>
+        <v>-0.13892333209514618</v>
       </c>
       <c r="D35" s="2">
         <v>-0.0012686821864917874</v>
       </c>
       <c r="E35" s="2">
-        <v>-0.23943974077701569</v>
+        <v>-0.24080274999141693</v>
       </c>
     </row>
     <row r="36">
@@ -641,16 +641,16 @@
         <v>42309</v>
       </c>
       <c r="B36" s="2">
-        <v>-0.4045650064945221</v>
+        <v>-0.40456500649452209</v>
       </c>
       <c r="C36" s="2">
-        <v>-0.62052434682846069</v>
+        <v>-0.61938327550888062</v>
       </c>
       <c r="D36" s="2">
         <v>-0.031225046142935753</v>
       </c>
       <c r="E36" s="2">
-        <v>-0.21536749601364136</v>
+        <v>-0.21680641174316406</v>
       </c>
     </row>
     <row r="37">
@@ -661,13 +661,13 @@
         <v>0.56481814384460449</v>
       </c>
       <c r="C37" s="2">
-        <v>0.49402084946632385</v>
+        <v>0.49880290031433105</v>
       </c>
       <c r="D37" s="2">
         <v>-0.050016406923532486</v>
       </c>
       <c r="E37" s="2">
-        <v>-0.25365155935287476</v>
+        <v>-0.2548794150352478</v>
       </c>
     </row>
     <row r="38">
@@ -678,13 +678,13 @@
         <v>-0.02193974144756794</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.20460143685340881</v>
+        <v>-0.20805348455905914</v>
       </c>
       <c r="D38" s="2">
         <v>0.17442938685417175</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.036579433828592301</v>
+        <v>-0.03809085488319397</v>
       </c>
     </row>
     <row r="39">
@@ -695,13 +695,13 @@
         <v>0.64711886644363403</v>
       </c>
       <c r="C39" s="2">
-        <v>0.36914029717445374</v>
+        <v>0.35893282294273376</v>
       </c>
       <c r="D39" s="2">
         <v>0.10004933923482895</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.10799260437488556</v>
+        <v>-0.10992106795310974</v>
       </c>
     </row>
     <row r="40">
@@ -712,13 +712,13 @@
         <v>-0.37610882520675659</v>
       </c>
       <c r="C40" s="2">
-        <v>-0.2784733772277832</v>
+        <v>-0.28008571267127991</v>
       </c>
       <c r="D40" s="2">
         <v>0.14019784331321716</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.099929347634315491</v>
+        <v>-0.10207262635231018</v>
       </c>
     </row>
     <row r="41">
@@ -729,13 +729,13 @@
         <v>-0.084390901029109955</v>
       </c>
       <c r="C41" s="2">
-        <v>-0.44946596026420593</v>
+        <v>-0.44820123910903931</v>
       </c>
       <c r="D41" s="2">
         <v>0.22562626004219055</v>
       </c>
       <c r="E41" s="2">
-        <v>-0.013638712465763092</v>
+        <v>-0.015899337828159332</v>
       </c>
     </row>
     <row r="42">
@@ -746,13 +746,13 @@
         <v>0.9256749153137207</v>
       </c>
       <c r="C42" s="2">
-        <v>0.54418736696243286</v>
+        <v>0.53973484039306641</v>
       </c>
       <c r="D42" s="2">
         <v>0.17017181217670441</v>
       </c>
       <c r="E42" s="2">
-        <v>-0.089115098118782043</v>
+        <v>-0.091625243425369263</v>
       </c>
     </row>
     <row r="43">
@@ -763,13 +763,13 @@
         <v>-0.40595424175262451</v>
       </c>
       <c r="C43" s="2">
-        <v>-0.68986964225769043</v>
+        <v>-0.69211310148239136</v>
       </c>
       <c r="D43" s="2">
         <v>0.1400931179523468</v>
       </c>
       <c r="E43" s="2">
-        <v>-0.13918787240982056</v>
+        <v>-0.14145204424858093</v>
       </c>
     </row>
     <row r="44">
@@ -780,13 +780,13 @@
         <v>0.4171273410320282</v>
       </c>
       <c r="C44" s="2">
-        <v>-0.06377788633108139</v>
+        <v>-0.068287357687950134</v>
       </c>
       <c r="D44" s="2">
         <v>0.015988118946552277</v>
       </c>
       <c r="E44" s="2">
-        <v>-0.24747613072395325</v>
+        <v>-0.24894708395004272</v>
       </c>
     </row>
     <row r="45">
@@ -797,13 +797,13 @@
         <v>0.3642907440662384</v>
       </c>
       <c r="C45" s="2">
-        <v>0.15609137713909149</v>
+        <v>0.15617629885673523</v>
       </c>
       <c r="D45" s="2">
         <v>0.053154107183218002</v>
       </c>
       <c r="E45" s="2">
-        <v>-0.25530052185058594</v>
+        <v>-0.25684124231338501</v>
       </c>
     </row>
     <row r="46">
@@ -814,13 +814,13 @@
         <v>0.065728098154067993</v>
       </c>
       <c r="C46" s="2">
-        <v>-0.1852666437625885</v>
+        <v>-0.18273027241230011</v>
       </c>
       <c r="D46" s="2">
         <v>0.0014584200689569116</v>
       </c>
       <c r="E46" s="2">
-        <v>-0.28069865703582764</v>
+        <v>-0.28225982189178467</v>
       </c>
     </row>
     <row r="47">
@@ -831,13 +831,13 @@
         <v>-0.29264798760414124</v>
       </c>
       <c r="C47" s="2">
-        <v>-0.65525639057159424</v>
+        <v>-0.65649467706680298</v>
       </c>
       <c r="D47" s="2">
         <v>-0.19763895869255066</v>
       </c>
       <c r="E47" s="2">
-        <v>-0.4677160382270813</v>
+        <v>-0.46872112154960632</v>
       </c>
     </row>
     <row r="48">
@@ -845,16 +845,16 @@
         <v>42675</v>
       </c>
       <c r="B48" s="2">
-        <v>-0.46982607245445252</v>
+        <v>-0.46982607245445251</v>
       </c>
       <c r="C48" s="2">
-        <v>-0.6054539680480957</v>
+        <v>-0.60852247476577759</v>
       </c>
       <c r="D48" s="2">
         <v>-0.20262032747268677</v>
       </c>
       <c r="E48" s="2">
-        <v>-0.46274802088737488</v>
+        <v>-0.46353951096534729</v>
       </c>
     </row>
     <row r="49">
@@ -865,13 +865,13 @@
         <v>-0.041614916175603867</v>
       </c>
       <c r="C49" s="2">
-        <v>-0.34889283776283264</v>
+        <v>-0.35113322734832764</v>
       </c>
       <c r="D49" s="2">
         <v>-0.29348841309547424</v>
       </c>
       <c r="E49" s="2">
-        <v>-0.54510349035263062</v>
+        <v>-0.54592907428741455</v>
       </c>
     </row>
     <row r="50">
@@ -882,13 +882,13 @@
         <v>-0.549652099609375</v>
       </c>
       <c r="C50" s="2">
-        <v>-0.67804920673370361</v>
+        <v>-0.67696845531463623</v>
       </c>
       <c r="D50" s="2">
         <v>-0.29693049192428589</v>
       </c>
       <c r="E50" s="2">
-        <v>-0.54021531343460083</v>
+        <v>-0.54172718524932861</v>
       </c>
     </row>
     <row r="51">
@@ -899,13 +899,13 @@
         <v>-0.86620146036148071</v>
       </c>
       <c r="C51" s="2">
-        <v>-1.1389690637588501</v>
+        <v>-1.1384168863296509</v>
       </c>
       <c r="D51" s="2">
         <v>-0.33952206373214722</v>
       </c>
       <c r="E51" s="2">
-        <v>-0.58983045816421509</v>
+        <v>-0.59146428108215332</v>
       </c>
     </row>
     <row r="52">
@@ -916,13 +916,13 @@
         <v>-0.45078656077384949</v>
       </c>
       <c r="C52" s="2">
-        <v>-0.64515751600265503</v>
+        <v>-0.64547854661941528</v>
       </c>
       <c r="D52" s="2">
         <v>-0.29222095012664795</v>
       </c>
       <c r="E52" s="2">
-        <v>-0.52634531259536743</v>
+        <v>-0.52819555997848511</v>
       </c>
     </row>
     <row r="53">
@@ -933,13 +933,13 @@
         <v>-0.40068542957305908</v>
       </c>
       <c r="C53" s="2">
-        <v>-0.8049774169921875</v>
+        <v>-0.80979365110397339</v>
       </c>
       <c r="D53" s="2">
         <v>-0.19391623139381409</v>
       </c>
       <c r="E53" s="2">
-        <v>-0.45472338795661926</v>
+        <v>-0.45654883980751038</v>
       </c>
     </row>
     <row r="54">
@@ -950,13 +950,13 @@
         <v>0.33331206440925598</v>
       </c>
       <c r="C54" s="2">
-        <v>0.20008504390716553</v>
+        <v>0.19399358332157135</v>
       </c>
       <c r="D54" s="2">
         <v>-0.29071322083473206</v>
       </c>
       <c r="E54" s="2">
-        <v>-0.55139601230621338</v>
+        <v>-0.55319094657897949</v>
       </c>
     </row>
     <row r="55">
@@ -967,13 +967,13 @@
         <v>-0.31759613752365112</v>
       </c>
       <c r="C55" s="2">
-        <v>-0.63180297613143921</v>
+        <v>-0.63036423921585083</v>
       </c>
       <c r="D55" s="2">
         <v>-0.22996386885643005</v>
       </c>
       <c r="E55" s="2">
-        <v>-0.49786683917045593</v>
+        <v>-0.49992427229881287</v>
       </c>
     </row>
     <row r="56">
@@ -984,13 +984,13 @@
         <v>0.13306212425231934</v>
       </c>
       <c r="C56" s="2">
-        <v>-0.083889663219451904</v>
+        <v>-0.087076209485530853</v>
       </c>
       <c r="D56" s="2">
         <v>-0.1662299782037735</v>
       </c>
       <c r="E56" s="2">
-        <v>-0.44803446531295776</v>
+        <v>-0.45008304715156555</v>
       </c>
     </row>
     <row r="57">
@@ -1001,13 +1001,13 @@
         <v>0.41491639614105225</v>
       </c>
       <c r="C57" s="2">
-        <v>0.039143022149801254</v>
+        <v>0.036298055201768875</v>
       </c>
       <c r="D57" s="2">
         <v>-0.13520701229572296</v>
       </c>
       <c r="E57" s="2">
-        <v>-0.43670240044593811</v>
+        <v>-0.43848448991775513</v>
       </c>
     </row>
     <row r="58">
@@ -1018,13 +1018,13 @@
         <v>-0.91278797388076782</v>
       </c>
       <c r="C58" s="2">
-        <v>-1.2189465761184692</v>
+        <v>-1.2209123373031616</v>
       </c>
       <c r="D58" s="2">
         <v>-0.09638301283121109</v>
       </c>
       <c r="E58" s="2">
-        <v>-0.38667330145835877</v>
+        <v>-0.38815757632255554</v>
       </c>
     </row>
     <row r="59">
@@ -1035,13 +1035,13 @@
         <v>-0.0029078770894557238</v>
       </c>
       <c r="C59" s="2">
-        <v>-0.19628648459911347</v>
+        <v>-0.19756826758384705</v>
       </c>
       <c r="D59" s="2">
-        <v>-0.23010538518428803</v>
+        <v>-0.23010538518428802</v>
       </c>
       <c r="E59" s="2">
-        <v>-0.54444998502731323</v>
+        <v>-0.54527449607849121</v>
       </c>
     </row>
     <row r="60">
@@ -1052,13 +1052,13 @@
         <v>-0.29259639978408813</v>
       </c>
       <c r="C60" s="2">
-        <v>-0.69047755002975464</v>
+        <v>-0.68984586000442505</v>
       </c>
       <c r="D60" s="2">
         <v>-0.25478518009185791</v>
       </c>
       <c r="E60" s="2">
-        <v>-0.56544399261474609</v>
+        <v>-0.56728851795196533</v>
       </c>
     </row>
     <row r="61">
@@ -1069,13 +1069,13 @@
         <v>-0.17157986760139465</v>
       </c>
       <c r="C61" s="2">
-        <v>-0.54316908121109009</v>
+        <v>-0.5410914421081543</v>
       </c>
       <c r="D61" s="2">
         <v>-0.33349129557609558</v>
       </c>
       <c r="E61" s="2">
-        <v>-0.64411401748657227</v>
+        <v>-0.64581072330474854</v>
       </c>
     </row>
     <row r="62">
@@ -1086,13 +1086,13 @@
         <v>-0.051269475370645523</v>
       </c>
       <c r="C62" s="2">
-        <v>-0.35471555590629578</v>
+        <v>-0.35685136914253235</v>
       </c>
       <c r="D62" s="2">
         <v>-0.34285661578178406</v>
       </c>
       <c r="E62" s="2">
-        <v>-0.63727998733520508</v>
+        <v>-0.63862341642379761</v>
       </c>
     </row>
     <row r="63">
@@ -1103,13 +1103,13 @@
         <v>-0.87018924951553345</v>
       </c>
       <c r="C63" s="2">
-        <v>-1.2199050188064575</v>
+        <v>-1.2200586795806885</v>
       </c>
       <c r="D63" s="2">
         <v>-0.29188269376754761</v>
       </c>
       <c r="E63" s="2">
-        <v>-0.58424443006515503</v>
+        <v>-0.58535164594650269</v>
       </c>
     </row>
     <row r="64">
@@ -1120,13 +1120,13 @@
         <v>-0.53971433639526367</v>
       </c>
       <c r="C64" s="2">
-        <v>-0.82074898481369019</v>
+        <v>-0.8284907341003418</v>
       </c>
       <c r="D64" s="2">
         <v>-0.30785155296325684</v>
       </c>
       <c r="E64" s="2">
-        <v>-0.6048848032951355</v>
+        <v>-0.60547620058059692</v>
       </c>
     </row>
     <row r="65">
@@ -1137,13 +1137,13 @@
         <v>-0.57529282569885254</v>
       </c>
       <c r="C65" s="2">
-        <v>-0.7919197678565979</v>
+        <v>-0.79377579689025879</v>
       </c>
       <c r="D65" s="2">
         <v>-0.15254397690296173</v>
       </c>
       <c r="E65" s="2">
-        <v>-0.42498660087585449</v>
+        <v>-0.42581900954246521</v>
       </c>
     </row>
     <row r="66">
@@ -1154,13 +1154,13 @@
         <v>0.33062833547592163</v>
       </c>
       <c r="C66" s="2">
-        <v>0.10064917057752609</v>
+        <v>0.10098367929458618</v>
       </c>
       <c r="D66" s="2">
         <v>-0.16346608102321625</v>
       </c>
       <c r="E66" s="2">
-        <v>-0.41918200254440308</v>
+        <v>-0.42062550783157349</v>
       </c>
     </row>
     <row r="67">
@@ -1171,13 +1171,13 @@
         <v>-0.45402267575263977</v>
       </c>
       <c r="C67" s="2">
-        <v>-0.74162667989730835</v>
+        <v>-0.74146640300750732</v>
       </c>
       <c r="D67" s="2">
         <v>-0.29474163055419922</v>
       </c>
       <c r="E67" s="2">
-        <v>-0.56016349792480469</v>
+        <v>-0.56144893169403076</v>
       </c>
     </row>
     <row r="68">
@@ -1188,13 +1188,13 @@
         <v>-0.14662759006023407</v>
       </c>
       <c r="C68" s="2">
-        <v>-0.38204994797706604</v>
+        <v>-0.37868914008140564</v>
       </c>
       <c r="D68" s="2">
         <v>-0.093412399291992188</v>
       </c>
       <c r="E68" s="2">
-        <v>-0.35041216015815735</v>
+        <v>-0.35192969441413879</v>
       </c>
     </row>
     <row r="69">
@@ -1205,13 +1205,13 @@
         <v>1.1051719188690186</v>
       </c>
       <c r="C69" s="2">
-        <v>0.92860639095306396</v>
+        <v>0.92706882953643799</v>
       </c>
       <c r="D69" s="2">
         <v>-0.12076326459646225</v>
       </c>
       <c r="E69" s="2">
-        <v>-0.38469946384429932</v>
+        <v>-0.38512557744979858</v>
       </c>
     </row>
     <row r="70">
@@ -1222,13 +1222,13 @@
         <v>-0.26987883448600769</v>
       </c>
       <c r="C70" s="2">
-        <v>-0.49092757701873779</v>
+        <v>-0.49435004591941833</v>
       </c>
       <c r="D70" s="2">
         <v>-0.17930825054645538</v>
       </c>
       <c r="E70" s="2">
-        <v>-0.43948116898536682</v>
+        <v>-0.439809650182724</v>
       </c>
     </row>
     <row r="71">
@@ -1236,16 +1236,16 @@
         <v>43374</v>
       </c>
       <c r="B71" s="2">
-        <v>-1.2327494621276856</v>
+        <v>-1.2327494621276855</v>
       </c>
       <c r="C71" s="2">
-        <v>-1.6235491037368774</v>
+        <v>-1.6242619752883911</v>
       </c>
       <c r="D71" s="2">
         <v>-0.27727213501930237</v>
       </c>
       <c r="E71" s="2">
-        <v>-0.53394901752471924</v>
+        <v>-0.53502142429351807</v>
       </c>
     </row>
     <row r="72">
@@ -1256,13 +1256,13 @@
         <v>0.94177389144897461</v>
       </c>
       <c r="C72" s="2">
-        <v>0.66785705089569092</v>
+        <v>0.66561430692672729</v>
       </c>
       <c r="D72" s="2">
         <v>-0.33878284692764282</v>
       </c>
       <c r="E72" s="2">
-        <v>-0.59181022644042969</v>
+        <v>-0.5932776927947998</v>
       </c>
     </row>
     <row r="73">
@@ -1273,13 +1273,13 @@
         <v>-0.78587216138839722</v>
       </c>
       <c r="C73" s="2">
-        <v>-1.1293348073959351</v>
+        <v>-1.1272536516189575</v>
       </c>
       <c r="D73" s="2">
         <v>-0.29063433408737183</v>
       </c>
       <c r="E73" s="2">
-        <v>-0.53859394788742066</v>
+        <v>-0.54054218530654907</v>
       </c>
     </row>
     <row r="74">
@@ -1290,13 +1290,13 @@
         <v>-1.1021976470947266</v>
       </c>
       <c r="C74" s="2">
-        <v>-1.2849551439285278</v>
+        <v>-1.2859324216842651</v>
       </c>
       <c r="D74" s="2">
         <v>-0.41044247150421143</v>
       </c>
       <c r="E74" s="2">
-        <v>-0.65896159410476685</v>
+        <v>-0.66071504354476929</v>
       </c>
     </row>
     <row r="75">
@@ -1307,13 +1307,13 @@
         <v>-0.55104660987854004</v>
       </c>
       <c r="C75" s="2">
-        <v>-0.7495613694190979</v>
+        <v>-0.75592207908630371</v>
       </c>
       <c r="D75" s="2">
         <v>-0.36674642562866211</v>
       </c>
       <c r="E75" s="2">
-        <v>-0.61690223217010498</v>
+        <v>-0.61823123693466187</v>
       </c>
     </row>
     <row r="76">
@@ -1324,13 +1324,13 @@
         <v>-1.0076190233230591</v>
       </c>
       <c r="C76" s="2">
-        <v>-1.2623776197433472</v>
+        <v>-1.2657729387283325</v>
       </c>
       <c r="D76" s="2">
         <v>-0.17389242351055145</v>
       </c>
       <c r="E76" s="2">
-        <v>-0.40737658739089966</v>
+        <v>-0.40886077284812927</v>
       </c>
     </row>
     <row r="77">
@@ -1341,13 +1341,13 @@
         <v>0.28670898079872131</v>
       </c>
       <c r="C77" s="2">
-        <v>0.096896715462207794</v>
+        <v>0.095930516719818115</v>
       </c>
       <c r="D77" s="2">
         <v>-0.21892324090003967</v>
       </c>
       <c r="E77" s="2">
-        <v>-0.44678375124931335</v>
+        <v>-0.44758880138397217</v>
       </c>
     </row>
     <row r="78">
@@ -1358,13 +1358,13 @@
         <v>0.026898570358753204</v>
       </c>
       <c r="C78" s="2">
-        <v>-0.15470270812511444</v>
+        <v>-0.1544870138168335</v>
       </c>
       <c r="D78" s="2">
         <v>-0.10211180150508881</v>
       </c>
       <c r="E78" s="2">
-        <v>-0.31376206874847412</v>
+        <v>-0.31424561142921448</v>
       </c>
     </row>
     <row r="79">
@@ -1375,13 +1375,13 @@
         <v>0.12338563054800034</v>
       </c>
       <c r="C79" s="2">
-        <v>-0.11239288747310638</v>
+        <v>-0.11199578642845154</v>
       </c>
       <c r="D79" s="2">
         <v>-0.033451300114393234</v>
       </c>
       <c r="E79" s="2">
-        <v>-0.25521796941757202</v>
+        <v>-0.25542673468589783</v>
       </c>
     </row>
     <row r="80">
@@ -1392,13 +1392,13 @@
         <v>0.50293654203414917</v>
       </c>
       <c r="C80" s="2">
-        <v>0.26218140125274658</v>
+        <v>0.26007220149040222</v>
       </c>
       <c r="D80" s="2">
-        <v>-0.011834267526865006</v>
+        <v>-0.011834267526865005</v>
       </c>
       <c r="E80" s="2">
-        <v>-0.26138994097709656</v>
+        <v>-0.26108634471893311</v>
       </c>
     </row>
     <row r="81">
@@ -1409,13 +1409,13 @@
         <v>0.53649652004241943</v>
       </c>
       <c r="C81" s="2">
-        <v>0.31319254636764526</v>
+        <v>0.31706202030181885</v>
       </c>
       <c r="D81" s="2">
         <v>0.067942298948764801</v>
       </c>
       <c r="E81" s="2">
-        <v>-0.18657940626144409</v>
+        <v>-0.1852429211139679</v>
       </c>
     </row>
     <row r="82">
@@ -1426,13 +1426,13 @@
         <v>0.26543080806732178</v>
       </c>
       <c r="C82" s="2">
-        <v>0.067860379815101624</v>
+        <v>0.072835080325603485</v>
       </c>
       <c r="D82" s="2">
         <v>0.079213529825210571</v>
       </c>
       <c r="E82" s="2">
-        <v>-0.17709581553936005</v>
+        <v>-0.17539715766906738</v>
       </c>
     </row>
     <row r="83">
@@ -1443,13 +1443,13 @@
         <v>-0.48425310850143433</v>
       </c>
       <c r="C83" s="2">
-        <v>-0.75805830955505371</v>
+        <v>-0.75656253099441528</v>
       </c>
       <c r="D83" s="2">
         <v>-0.035879045724868774</v>
       </c>
       <c r="E83" s="2">
-        <v>-0.30422422289848328</v>
+        <v>-0.30232354998588562</v>
       </c>
     </row>
     <row r="84">
@@ -1460,13 +1460,13 @@
         <v>-0.35649332404136658</v>
       </c>
       <c r="C84" s="2">
-        <v>-0.80510908365249634</v>
+        <v>-0.80685865879058838</v>
       </c>
       <c r="D84" s="2">
         <v>0.021520733833312988</v>
       </c>
       <c r="E84" s="2">
-        <v>-0.23472267389297485</v>
+        <v>-0.23303702473640442</v>
       </c>
     </row>
     <row r="85">
@@ -1477,13 +1477,13 @@
         <v>-0.28962990641593933</v>
       </c>
       <c r="C85" s="2">
-        <v>-0.58908271789550781</v>
+        <v>-0.58318209648132324</v>
       </c>
       <c r="D85" s="2">
         <v>-0.077597707509994507</v>
       </c>
       <c r="E85" s="2">
-        <v>-0.3382384181022644</v>
+        <v>-0.33648079633712769</v>
       </c>
     </row>
     <row r="86">
@@ -1494,13 +1494,13 @@
         <v>0.38815003633499146</v>
       </c>
       <c r="C86" s="2">
-        <v>0.1822490394115448</v>
+        <v>0.18454240262508392</v>
       </c>
       <c r="D86" s="2">
         <v>-0.16843967139720917</v>
       </c>
       <c r="E86" s="2">
-        <v>-0.41850811243057251</v>
+        <v>-0.41696622967720032</v>
       </c>
     </row>
     <row r="87">
@@ -1511,13 +1511,13 @@
         <v>-1.0089346170425415</v>
       </c>
       <c r="C87" s="2">
-        <v>-1.2988584041595459</v>
+        <v>-1.29682457447052</v>
       </c>
       <c r="D87" s="2">
         <v>-0.27148890495300293</v>
       </c>
       <c r="E87" s="2">
-        <v>-0.51322358846664429</v>
+        <v>-0.51237577199935913</v>
       </c>
     </row>
     <row r="88">
@@ -1528,13 +1528,13 @@
         <v>0.6399836540222168</v>
       </c>
       <c r="C88" s="2">
-        <v>0.51312112808227539</v>
+        <v>0.51158291101455688</v>
       </c>
       <c r="D88" s="2">
         <v>-0.28811508417129517</v>
       </c>
       <c r="E88" s="2">
-        <v>-0.5224616527557373</v>
+        <v>-0.52213728427886963</v>
       </c>
     </row>
     <row r="89">
@@ -1545,13 +1545,13 @@
         <v>-0.38912945985794067</v>
       </c>
       <c r="C89" s="2">
-        <v>-0.66946029663085938</v>
+        <v>-0.6709216833114624</v>
       </c>
       <c r="D89" s="2">
         <v>-0.29760932922363281</v>
       </c>
       <c r="E89" s="2">
-        <v>-0.51061809062957764</v>
+        <v>-0.50987368822097778</v>
       </c>
     </row>
     <row r="90">
@@ -1562,13 +1562,13 @@
         <v>-0.28108114004135132</v>
       </c>
       <c r="C90" s="2">
-        <v>-0.40923488140106201</v>
+        <v>-0.40730690956115723</v>
       </c>
       <c r="D90" s="2">
         <v>-0.17618143558502197</v>
       </c>
       <c r="E90" s="2">
-        <v>-0.38916870951652527</v>
+        <v>-0.38886404037475586</v>
       </c>
     </row>
     <row r="91">
@@ -1579,13 +1579,13 @@
         <v>-0.66201239824295044</v>
       </c>
       <c r="C91" s="2">
-        <v>-0.78457885980606079</v>
+        <v>-0.78585058450698853</v>
       </c>
       <c r="D91" s="2">
         <v>-0.27070972323417664</v>
       </c>
       <c r="E91" s="2">
-        <v>-0.47818958759307861</v>
+        <v>-0.47794094681739807</v>
       </c>
     </row>
     <row r="92">
@@ -1596,13 +1596,13 @@
         <v>-0.63388866186141968</v>
       </c>
       <c r="C92" s="2">
-        <v>-0.84120082855224609</v>
+        <v>-0.84441655874252319</v>
       </c>
       <c r="D92" s="2">
         <v>-0.19565790891647339</v>
       </c>
       <c r="E92" s="2">
-        <v>-0.40233588218688965</v>
+        <v>-0.40221309661865234</v>
       </c>
     </row>
     <row r="93">
@@ -1613,13 +1613,13 @@
         <v>-0.44194155931472778</v>
       </c>
       <c r="C93" s="2">
-        <v>-0.69851696491241455</v>
+        <v>-0.69648629426956177</v>
       </c>
       <c r="D93" s="2">
         <v>-0.30421113967895508</v>
       </c>
       <c r="E93" s="2">
-        <v>-0.51358270645141602</v>
+        <v>-0.51340466737747192</v>
       </c>
     </row>
     <row r="94">
@@ -1630,13 +1630,13 @@
         <v>0.80322116613388062</v>
       </c>
       <c r="C94" s="2">
-        <v>0.50396180152893067</v>
+        <v>0.5059049129486084</v>
       </c>
       <c r="D94" s="2">
         <v>-0.21648773550987244</v>
       </c>
       <c r="E94" s="2">
-        <v>-0.40878579020500183</v>
+        <v>-0.40818428993225098</v>
       </c>
     </row>
     <row r="95">
@@ -1647,13 +1647,13 @@
         <v>-0.46260461211204529</v>
       </c>
       <c r="C95" s="2">
-        <v>-0.6189388632774353</v>
+        <v>-0.61714965105056763</v>
       </c>
       <c r="D95" s="2">
         <v>-0.15596693754196167</v>
       </c>
       <c r="E95" s="2">
-        <v>-0.3721528947353363</v>
+        <v>-0.37237659096717834</v>
       </c>
     </row>
     <row r="96">
@@ -1664,13 +1664,13 @@
         <v>-0.33346819877624512</v>
       </c>
       <c r="C96" s="2">
-        <v>-0.61617523431777954</v>
+        <v>-0.61527413129806519</v>
       </c>
       <c r="D96" s="2">
         <v>-0.12752220034599304</v>
       </c>
       <c r="E96" s="2">
-        <v>-0.34804922342300415</v>
+        <v>-0.34803834557533264</v>
       </c>
     </row>
     <row r="97">
@@ -1681,13 +1681,13 @@
         <v>-0.33699530363082886</v>
       </c>
       <c r="C97" s="2">
-        <v>-0.48810037970542908</v>
+        <v>-0.48914134502410889</v>
       </c>
       <c r="D97" s="2">
         <v>-0.055713094770908356</v>
       </c>
       <c r="E97" s="2">
-        <v>-0.29106360673904419</v>
+        <v>-0.29109188914299011</v>
       </c>
     </row>
     <row r="98">
@@ -1698,13 +1698,13 @@
         <v>0.40038111805915833</v>
       </c>
       <c r="C98" s="2">
-        <v>0.27371200919151306</v>
+        <v>0.27606201171875</v>
       </c>
       <c r="D98" s="2">
         <v>-0.074422493577003479</v>
       </c>
       <c r="E98" s="2">
-        <v>-0.32356294989585876</v>
+        <v>-0.3238348662853241</v>
       </c>
     </row>
     <row r="99">
@@ -1715,13 +1715,13 @@
         <v>0.26360598206520081</v>
       </c>
       <c r="C99" s="2">
-        <v>-0.079538851976394653</v>
+        <v>-0.085037678480148315</v>
       </c>
       <c r="D99" s="2">
-        <v>-0.15668345987796784</v>
+        <v>-0.15668345987796783</v>
       </c>
       <c r="E99" s="2">
-        <v>-0.39949056506156921</v>
+        <v>-0.39981681108474731</v>
       </c>
     </row>
     <row r="100">
@@ -1729,16 +1729,16 @@
         <v>44256</v>
       </c>
       <c r="B100" s="2">
-        <v>-0.40600967407226563</v>
+        <v>-0.40600967407226562</v>
       </c>
       <c r="C100" s="2">
-        <v>-0.5676456093788147</v>
+        <v>-0.5668063759803772</v>
       </c>
       <c r="D100" s="2">
         <v>-0.18423593044281006</v>
       </c>
       <c r="E100" s="2">
-        <v>-0.45224475860595703</v>
+        <v>-0.45312917232513428</v>
       </c>
     </row>
     <row r="101">
@@ -1749,13 +1749,13 @@
         <v>0.01239322405308485</v>
       </c>
       <c r="C101" s="2">
-        <v>-0.32833027839660645</v>
+        <v>-0.33189836144447327</v>
       </c>
       <c r="D101" s="2">
         <v>-0.1804722398519516</v>
       </c>
       <c r="E101" s="2">
-        <v>-0.42868894338607788</v>
+        <v>-0.42950022220611572</v>
       </c>
     </row>
     <row r="102">
@@ -1766,13 +1766,13 @@
         <v>-0.61032617092132568</v>
       </c>
       <c r="C102" s="2">
-        <v>-0.99101114273071289</v>
+        <v>-0.9911731481552124</v>
       </c>
       <c r="D102" s="2">
         <v>-0.15176080167293549</v>
       </c>
       <c r="E102" s="2">
-        <v>-0.42117199301719666</v>
+        <v>-0.42217010259628296</v>
       </c>
     </row>
     <row r="103">
@@ -1783,13 +1783,13 @@
         <v>0.062872469425201416</v>
       </c>
       <c r="C103" s="2">
-        <v>-0.17938664555549622</v>
+        <v>-0.17793275415897369</v>
       </c>
       <c r="D103" s="2">
         <v>-0.28409120440483093</v>
       </c>
       <c r="E103" s="2">
-        <v>-0.56512308120727539</v>
+        <v>-0.56627559661865234</v>
       </c>
     </row>
     <row r="104">
@@ -1800,13 +1800,13 @@
         <v>-0.71057683229446411</v>
       </c>
       <c r="C104" s="2">
-        <v>-1.093726634979248</v>
+        <v>-1.0969609022140503</v>
       </c>
       <c r="D104" s="2">
         <v>-0.34727656841278076</v>
       </c>
       <c r="E104" s="2">
-        <v>-0.60350662469863892</v>
+        <v>-0.60374987125396729</v>
       </c>
     </row>
     <row r="105">
@@ -1817,13 +1817,13 @@
         <v>-0.29959499835968018</v>
       </c>
       <c r="C105" s="2">
-        <v>-0.40417283773422241</v>
+        <v>-0.40261358022689819</v>
       </c>
       <c r="D105" s="2">
         <v>-0.35890316963195801</v>
       </c>
       <c r="E105" s="2">
-        <v>-0.6334228515625</v>
+        <v>-0.63359355926513672</v>
       </c>
     </row>
     <row r="106">
@@ -1834,13 +1834,13 @@
         <v>-0.078592367470264435</v>
       </c>
       <c r="C106" s="2">
-        <v>-0.42044785618782043</v>
+        <v>-0.4231700599193573</v>
       </c>
       <c r="D106" s="2">
         <v>-0.40842324495315552</v>
       </c>
       <c r="E106" s="2">
-        <v>-0.65621870756149292</v>
+        <v>-0.65592330694198608</v>
       </c>
     </row>
     <row r="107">
@@ -1851,13 +1851,13 @@
         <v>-0.79059237241744995</v>
       </c>
       <c r="C107" s="2">
-        <v>-1.0218477249145508</v>
+        <v>-1.0208877325057983</v>
       </c>
       <c r="D107" s="2">
         <v>-0.4242800772190094</v>
       </c>
       <c r="E107" s="2">
-        <v>-0.64920681715011597</v>
+        <v>-0.64889562129974365</v>
       </c>
     </row>
     <row r="108">
@@ -1868,13 +1868,13 @@
         <v>-0.30506247282028198</v>
       </c>
       <c r="C108" s="2">
-        <v>-0.42499083280563354</v>
+        <v>-0.4223061203956604</v>
       </c>
       <c r="D108" s="2">
         <v>-0.45394784212112427</v>
       </c>
       <c r="E108" s="2">
-        <v>-0.67000126838684082</v>
+        <v>-0.67007315158843994</v>
       </c>
     </row>
     <row r="109">
@@ -1885,13 +1885,13 @@
         <v>-0.51064908504486084</v>
       </c>
       <c r="C109" s="2">
-        <v>-0.83689182996749878</v>
+        <v>-0.83539921045303345</v>
       </c>
       <c r="D109" s="2">
         <v>-0.40927863121032715</v>
       </c>
       <c r="E109" s="2">
-        <v>-0.59966278076171875</v>
+        <v>-0.59922152757644653</v>
       </c>
     </row>
     <row r="110">
@@ -1902,13 +1902,13 @@
         <v>-0.4332873523235321</v>
       </c>
       <c r="C110" s="2">
-        <v>-0.53349262475967407</v>
+        <v>-0.53286606073379517</v>
       </c>
       <c r="D110" s="2">
         <v>-0.38601383566856384</v>
       </c>
       <c r="E110" s="2">
-        <v>-0.58084374666213989</v>
+        <v>-0.58057320117950439</v>
       </c>
     </row>
     <row r="111">
@@ -1919,13 +1919,13 @@
         <v>-0.75303781032562256</v>
       </c>
       <c r="C111" s="2">
-        <v>-0.92790454626083374</v>
+        <v>-0.92792421579360962</v>
       </c>
       <c r="D111" s="2">
         <v>-0.37001535296440125</v>
       </c>
       <c r="E111" s="2">
-        <v>-0.54544419050216675</v>
+        <v>-0.54524475336074829</v>
       </c>
     </row>
     <row r="112">
@@ -1933,16 +1933,16 @@
         <v>44621</v>
       </c>
       <c r="B112" s="2">
-        <v>-0.20413732528686524</v>
+        <v>-0.20413732528686523</v>
       </c>
       <c r="C112" s="2">
-        <v>-0.36653634905815125</v>
+        <v>-0.36853024363517761</v>
       </c>
       <c r="D112" s="2">
         <v>-0.31648710370063782</v>
       </c>
       <c r="E112" s="2">
-        <v>-0.4832453727722168</v>
+        <v>-0.48325872421264648</v>
       </c>
     </row>
     <row r="113">
@@ -1953,13 +1953,13 @@
         <v>-0.3085540235042572</v>
       </c>
       <c r="C113" s="2">
-        <v>-0.46068039536476135</v>
+        <v>-0.45929652452468872</v>
       </c>
       <c r="D113" s="2">
         <v>-0.29432645440101624</v>
       </c>
       <c r="E113" s="2">
-        <v>-0.4651758074760437</v>
+        <v>-0.46546670794487</v>
       </c>
     </row>
     <row r="114">
@@ -1970,13 +1970,13 @@
         <v>-0.090211838483810425</v>
       </c>
       <c r="C114" s="2">
-        <v>-0.23480167984962463</v>
+        <v>-0.23477838933467865</v>
       </c>
       <c r="D114" s="2">
         <v>-0.25587639212608337</v>
       </c>
       <c r="E114" s="2">
-        <v>-0.39956390857696533</v>
+        <v>-0.40017840266227722</v>
       </c>
     </row>
     <row r="115">
@@ -1987,13 +1987,13 @@
         <v>0.065394096076488495</v>
       </c>
       <c r="C115" s="2">
-        <v>-0.10185184329748154</v>
+        <v>-0.10521429032087326</v>
       </c>
       <c r="D115" s="2">
         <v>-0.25393092632293701</v>
       </c>
       <c r="E115" s="2">
-        <v>-0.40523579716682434</v>
+        <v>-0.40593516826629639</v>
       </c>
     </row>
     <row r="116">
@@ -2004,13 +2004,13 @@
         <v>-0.30883818864822388</v>
       </c>
       <c r="C116" s="2">
-        <v>-0.46205824613571167</v>
+        <v>-0.4630134105682373</v>
       </c>
       <c r="D116" s="2">
         <v>-0.24248038232326508</v>
       </c>
       <c r="E116" s="2">
-        <v>-0.38075703382492065</v>
+        <v>-0.38131621479988098</v>
       </c>
     </row>
     <row r="117">
@@ -2021,13 +2021,13 @@
         <v>-0.10561659932136536</v>
       </c>
       <c r="C117" s="2">
-        <v>-0.26236486434936524</v>
+        <v>-0.26217794418334961</v>
       </c>
       <c r="D117" s="2">
         <v>-0.27141019701957703</v>
       </c>
       <c r="E117" s="2">
-        <v>-0.41525077819824219</v>
+        <v>-0.41599258780479431</v>
       </c>
     </row>
     <row r="118">
@@ -2038,13 +2038,13 @@
         <v>-0.16459836065769196</v>
       </c>
       <c r="C118" s="2">
-        <v>-0.24638457596302032</v>
+        <v>-0.24780447781085968</v>
       </c>
       <c r="D118" s="2">
         <v>-0.26587346196174622</v>
       </c>
       <c r="E118" s="2">
-        <v>-0.40866199135780334</v>
+        <v>-0.40973225235939026</v>
       </c>
     </row>
     <row r="119">
@@ -2055,13 +2055,13 @@
         <v>-0.41577836871147156</v>
       </c>
       <c r="C119" s="2">
-        <v>-0.58453959226608276</v>
+        <v>-0.58467692136764526</v>
       </c>
       <c r="D119" s="2">
         <v>-0.31620165705680847</v>
       </c>
       <c r="E119" s="2">
-        <v>-0.45512205362319946</v>
+        <v>-0.45612061023712158</v>
       </c>
     </row>
     <row r="120">
@@ -2072,13 +2072,13 @@
         <v>-0.64998281002044678</v>
       </c>
       <c r="C120" s="2">
-        <v>-0.70759570598602295</v>
+        <v>-0.70635378360748291</v>
       </c>
       <c r="D120" s="2">
         <v>-0.40068012475967407</v>
       </c>
       <c r="E120" s="2">
-        <v>-0.53538155555725098</v>
+        <v>-0.536063551902771</v>
       </c>
     </row>
     <row r="121">
@@ -2089,13 +2089,13 @@
         <v>-0.4645056426525116</v>
       </c>
       <c r="C121" s="2">
-        <v>-0.67698007822036743</v>
+        <v>-0.6806175708770752</v>
       </c>
       <c r="D121" s="2">
         <v>-0.41660252213478088</v>
       </c>
       <c r="E121" s="2">
-        <v>-0.55945444107055664</v>
+        <v>-0.56016486883163452</v>
       </c>
     </row>
     <row r="122">
@@ -2106,13 +2106,13 @@
         <v>-0.25872346758842468</v>
       </c>
       <c r="C122" s="2">
-        <v>-0.40138128399848938</v>
+        <v>-0.40295359492301941</v>
       </c>
       <c r="D122" s="2">
         <v>-0.43111085891723633</v>
       </c>
       <c r="E122" s="2">
-        <v>-0.57648932933807373</v>
+        <v>-0.57732683420181274</v>
       </c>
     </row>
     <row r="123">
@@ -2123,13 +2123,13 @@
         <v>-0.54316568374633789</v>
       </c>
       <c r="C123" s="2">
-        <v>-0.65294229984283447</v>
+        <v>-0.65227353572845459</v>
       </c>
       <c r="D123" s="2">
         <v>-0.41099384427070618</v>
       </c>
       <c r="E123" s="2">
-        <v>-0.5737881064414978</v>
+        <v>-0.57443976402282715</v>
       </c>
     </row>
     <row r="124">
@@ -2140,13 +2140,13 @@
         <v>-0.69491207599639893</v>
       </c>
       <c r="C124" s="2">
-        <v>-0.8241875171661377</v>
+        <v>-0.82470059394836426</v>
       </c>
       <c r="D124" s="2">
         <v>-0.39766961336135864</v>
       </c>
       <c r="E124" s="2">
-        <v>-0.56973171234130859</v>
+        <v>-0.57073277235031128</v>
       </c>
     </row>
     <row r="125">
@@ -2157,13 +2157,13 @@
         <v>-0.45213967561721802</v>
       </c>
       <c r="C125" s="2">
-        <v>-0.67871427536010742</v>
+        <v>-0.67992526292800903</v>
       </c>
       <c r="D125" s="2">
         <v>-0.36088427901268005</v>
       </c>
       <c r="E125" s="2">
-        <v>-0.55764961242675781</v>
+        <v>-0.55864185094833374</v>
       </c>
     </row>
     <row r="126">
@@ -2174,13 +2174,13 @@
         <v>-0.236191526055336</v>
       </c>
       <c r="C126" s="2">
-        <v>-0.41567873954772949</v>
+        <v>-0.416635662317276</v>
       </c>
       <c r="D126" s="2">
         <v>-0.42693674564361572</v>
       </c>
       <c r="E126" s="2">
-        <v>-0.6303974986076355</v>
+        <v>-0.63127231597900391</v>
       </c>
     </row>
     <row r="127">
@@ -2191,13 +2191,13 @@
         <v>0.01645464263856411</v>
       </c>
       <c r="C127" s="2">
-        <v>-0.22207358479499817</v>
+        <v>-0.22182111442089081</v>
       </c>
       <c r="D127" s="2">
         <v>-0.3439827561378479</v>
       </c>
       <c r="E127" s="2">
-        <v>-0.54681932926177979</v>
+        <v>-0.54706573486328125</v>
       </c>
     </row>
     <row r="128">
@@ -2208,13 +2208,13 @@
         <v>-0.29586023092269897</v>
       </c>
       <c r="C128" s="2">
-        <v>-0.54803198575973511</v>
+        <v>-0.55131393671035767</v>
       </c>
       <c r="D128" s="2">
         <v>-0.31330099701881409</v>
       </c>
       <c r="E128" s="2">
-        <v>-0.5256391167640686</v>
+        <v>-0.52649039030075073</v>
       </c>
     </row>
     <row r="129">
@@ -2225,13 +2225,13 @@
         <v>-0.3189147412776947</v>
       </c>
       <c r="C129" s="2">
-        <v>-0.59885650873184204</v>
+        <v>-0.59753537178039551</v>
       </c>
       <c r="D129" s="2">
         <v>-0.19910748302936554</v>
       </c>
       <c r="E129" s="2">
-        <v>-0.4139857292175293</v>
+        <v>-0.41502860188484192</v>
       </c>
     </row>
     <row r="130">
@@ -2242,13 +2242,13 @@
         <v>-1.0589779615402222</v>
       </c>
       <c r="C130" s="2">
-        <v>-1.3317112922668457</v>
+        <v>-1.334291934967041</v>
       </c>
       <c r="D130" s="2">
         <v>-0.13768768310546875</v>
       </c>
       <c r="E130" s="2">
-        <v>-0.34907028079032898</v>
+        <v>-0.34944146871566772</v>
       </c>
     </row>
     <row r="131">
@@ -2259,13 +2259,13 @@
         <v>0.48786237835884094</v>
       </c>
       <c r="C131" s="2">
-        <v>0.35082244873046875</v>
+        <v>0.35490584373474121</v>
       </c>
       <c r="D131" s="2">
         <v>-0.16731062531471252</v>
       </c>
       <c r="E131" s="2">
-        <v>-0.3769088089466095</v>
+        <v>-0.37694743275642395</v>
       </c>
     </row>
     <row r="132">
@@ -2276,13 +2276,13 @@
         <v>-0.26702976226806641</v>
       </c>
       <c r="C132" s="2">
-        <v>-0.46232080459594727</v>
+        <v>-0.46709522604942322</v>
       </c>
       <c r="D132" s="2">
         <v>-0.15201237797737122</v>
       </c>
       <c r="E132" s="2">
-        <v>-0.36932334303855896</v>
+        <v>-0.36996603012084961</v>
       </c>
     </row>
     <row r="133">
@@ -2293,13 +2293,13 @@
         <v>0.33282959461212158</v>
       </c>
       <c r="C133" s="2">
-        <v>0.18069319427013397</v>
+        <v>0.17845536768436432</v>
       </c>
       <c r="D133" s="2">
         <v>-0.10918814688920975</v>
       </c>
       <c r="E133" s="2">
-        <v>-0.32050719857215881</v>
+        <v>-0.32089641690254211</v>
       </c>
     </row>
     <row r="134">
@@ -2310,13 +2310,13 @@
         <v>0.10063840448856354</v>
       </c>
       <c r="C134" s="2">
-        <v>-0.094475135207176208</v>
+        <v>-0.089641056954860687</v>
       </c>
       <c r="D134" s="2">
         <v>-0.14214363694190979</v>
       </c>
       <c r="E134" s="2">
-        <v>-0.34222406148910522</v>
+        <v>-0.34276983141899109</v>
       </c>
     </row>
     <row r="135">
@@ -2327,13 +2327,13 @@
         <v>-0.50279790163040161</v>
       </c>
       <c r="C135" s="2">
-        <v>-0.66622567176818848</v>
+        <v>-0.66418945789337158</v>
       </c>
       <c r="D135" s="2">
-        <v>-0.027539350092411041</v>
+        <v>0.01849055290222168</v>
       </c>
       <c r="E135" s="2">
-        <v>-0.21853816509246826</v>
+        <v>-0.16546542942523956</v>
       </c>
     </row>
     <row r="136">
@@ -2344,13 +2344,13 @@
         <v>0.15413878858089447</v>
       </c>
       <c r="C136" s="2">
-        <v>-0.15380443632602692</v>
+        <v>-0.15898846089839935</v>
       </c>
       <c r="D136" s="2">
-        <v>-0.10116817057132721</v>
+        <v>0.0097830193117260933</v>
       </c>
       <c r="E136" s="2">
-        <v>-0.299875408411026</v>
+        <v>-0.17856661975383759</v>
       </c>
     </row>
     <row r="137">
@@ -2361,13 +2361,13 @@
         <v>0.089557856321334839</v>
       </c>
       <c r="C137" s="2">
-        <v>-0.10868670791387558</v>
+        <v>-0.10968752950429916</v>
       </c>
       <c r="D137" s="2">
-        <v>-0.07352457195520401</v>
+        <v>0.044384617358446121</v>
       </c>
       <c r="E137" s="2">
-        <v>-0.27280116081237793</v>
+        <v>-0.14250054955482483</v>
       </c>
     </row>
     <row r="138">
@@ -2378,32 +2378,48 @@
         <v>-0.61551415920257568</v>
       </c>
       <c r="C138" s="2">
-        <v>-0.79430824518203735</v>
+        <v>-0.79439610242843628</v>
       </c>
       <c r="D138" s="2">
-        <v>-0.15479540824890137</v>
+        <v>0.0031781920697540045</v>
       </c>
       <c r="E138" s="2">
-        <v>-0.36350002884864807</v>
+        <v>-0.18835139274597168</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
         <v>45444</v>
       </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
+      <c r="B139" s="2">
+        <v>0.38672977685928345</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0.26144778728485107</v>
+      </c>
+      <c r="D139" s="2">
+        <v>-0.013065177015960217</v>
+      </c>
+      <c r="E139" s="2">
+        <v>-0.20480312407016754</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1">
         <v>45474</v>
       </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
+      <c r="B140" s="2">
+        <v>0.40949457883834839</v>
+      </c>
+      <c r="C140" s="2">
+        <v>0.23699504137039185</v>
+      </c>
+      <c r="D140" s="2">
+        <v>0.084881365299224854</v>
+      </c>
+      <c r="E140" s="2">
+        <v>-0.11292584985494614</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1">
@@ -2468,6 +2484,24 @@
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
     </row>
+    <row r="148">
+      <c r="A148" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>